--- a/RACINGLINE/racingline_code/backup/racingline_base.xlsx
+++ b/RACINGLINE/racingline_code/backup/racingline_base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edmilbe\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2f0cf8ba9d15ebdd/Documentos/catalogos/RACINGLINE/racingline_code/backup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD495390-2B4B-4C82-B1C7-827D7746FF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{BD495390-2B4B-4C82-B1C7-827D7746FF69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABFF04B0-D2C1-4B04-A6D3-B1D6E4D7E2E7}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -9971,12 +9971,6 @@
     <xf numFmtId="43" fontId="7" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -10032,6 +10026,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10341,15 +10341,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G412"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16.1640625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="74.6640625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="27" customWidth="1"/>
+    <col min="2" max="2" width="74.6640625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.83203125" style="11" customWidth="1"/>
     <col min="6" max="6" width="7.1640625" style="11" customWidth="1"/>
@@ -10380,24 +10380,24 @@
       <c r="C2" s="13">
         <v>425.88</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="26" t="s">
         <v>835</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="28"/>
       <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="27" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="15">
         <v>655.20000000000005</v>
       </c>
-      <c r="D3" s="18"/>
+      <c r="D3" s="16"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -10406,13 +10406,13 @@
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>655.20000000000005</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -10421,13 +10421,13 @@
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>655.20000000000005</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
@@ -10436,13 +10436,13 @@
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <v>539.17999999999995</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -10451,13 +10451,13 @@
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <v>743.93</v>
       </c>
-      <c r="D7" s="18"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -10466,13 +10466,13 @@
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>743.93</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -10481,13 +10481,13 @@
       <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="32" t="s">
         <v>836</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>743.93</v>
       </c>
-      <c r="D9" s="18"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
@@ -10496,13 +10496,13 @@
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="15">
         <v>743.93</v>
       </c>
-      <c r="D10" s="18"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
@@ -10511,13 +10511,13 @@
       <c r="A11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="15">
         <v>743.93</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -10526,14 +10526,14 @@
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <v>743.93</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="33"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
@@ -10541,13 +10541,13 @@
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <v>248.75</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -10556,13 +10556,13 @@
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="15">
         <v>248.75</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -10571,13 +10571,13 @@
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="15">
         <v>268.74</v>
       </c>
-      <c r="D15" s="18"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -10586,13 +10586,13 @@
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="15">
         <v>268.74</v>
       </c>
-      <c r="D16" s="18"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -10601,13 +10601,13 @@
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="15">
         <v>268.74</v>
       </c>
-      <c r="D17" s="18"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
@@ -10616,13 +10616,13 @@
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="15">
         <v>248.75</v>
       </c>
-      <c r="D18" s="18"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
@@ -10631,13 +10631,13 @@
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="15">
         <v>248.75</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10"/>
@@ -10646,13 +10646,13 @@
       <c r="A20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="15">
         <v>268.74</v>
       </c>
-      <c r="D20" s="18"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10"/>
@@ -10661,13 +10661,13 @@
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="15">
         <v>268.74</v>
       </c>
-      <c r="D21" s="18"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -10676,13 +10676,13 @@
       <c r="A22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="15">
         <v>268.74</v>
       </c>
-      <c r="D22" s="18"/>
+      <c r="D22" s="16"/>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -10691,13 +10691,13 @@
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="15">
         <v>268.74</v>
       </c>
-      <c r="D23" s="18"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -10706,13 +10706,13 @@
       <c r="A24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="15">
         <v>268.74</v>
       </c>
-      <c r="D24" s="18"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
@@ -10721,13 +10721,13 @@
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="15">
         <v>313.95</v>
       </c>
-      <c r="D25" s="18"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
       <c r="G25" s="10"/>
@@ -10736,13 +10736,13 @@
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="15">
         <v>268.74</v>
       </c>
-      <c r="D26" s="18"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
@@ -10751,13 +10751,13 @@
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="15">
         <v>268.74</v>
       </c>
-      <c r="D27" s="18"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
@@ -10766,13 +10766,13 @@
       <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="15">
         <v>195.56</v>
       </c>
-      <c r="D28" s="18"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
@@ -10781,13 +10781,13 @@
       <c r="A29" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="15">
         <v>268.74</v>
       </c>
-      <c r="D29" s="18"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -10796,13 +10796,13 @@
       <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="15">
         <v>268.74</v>
       </c>
-      <c r="D30" s="18"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
@@ -10811,13 +10811,13 @@
       <c r="A31" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="15">
         <v>268.74</v>
       </c>
-      <c r="D31" s="18"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -10826,13 +10826,13 @@
       <c r="A32" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="15">
         <v>268.74</v>
       </c>
-      <c r="D32" s="18"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
@@ -10841,13 +10841,13 @@
       <c r="A33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="15">
         <v>3139.5</v>
       </c>
-      <c r="D33" s="18"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
@@ -10856,13 +10856,13 @@
       <c r="A34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="15">
         <v>3139.5</v>
       </c>
-      <c r="D34" s="18"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
@@ -10871,30 +10871,30 @@
       <c r="A35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="15">
         <v>227.5</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="30"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
     </row>
     <row r="36" spans="1:7" ht="27" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="15">
         <v>227.5</v>
       </c>
-      <c r="D36" s="18"/>
+      <c r="D36" s="16"/>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
       <c r="G36" s="10"/>
@@ -10903,13 +10903,13 @@
       <c r="A37" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="15">
         <v>233.42</v>
       </c>
-      <c r="D37" s="18"/>
+      <c r="D37" s="16"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
@@ -10918,13 +10918,13 @@
       <c r="A38" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="15">
         <v>208.85</v>
       </c>
-      <c r="D38" s="18"/>
+      <c r="D38" s="16"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="10"/>
@@ -10933,13 +10933,13 @@
       <c r="A39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="15">
         <v>490.04</v>
       </c>
-      <c r="D39" s="18"/>
+      <c r="D39" s="16"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
@@ -10948,13 +10948,13 @@
       <c r="A40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="15">
         <v>176.09</v>
       </c>
-      <c r="D40" s="18"/>
+      <c r="D40" s="16"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
       <c r="G40" s="10"/>
@@ -10963,13 +10963,13 @@
       <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="15">
         <v>632.80999999999995</v>
       </c>
-      <c r="D41" s="18"/>
+      <c r="D41" s="16"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
       <c r="G41" s="10"/>
@@ -10978,13 +10978,13 @@
       <c r="A42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="15">
         <v>763.04</v>
       </c>
-      <c r="D42" s="18"/>
+      <c r="D42" s="16"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
@@ -10993,13 +10993,13 @@
       <c r="A43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="15">
         <v>288.74</v>
       </c>
-      <c r="D43" s="18"/>
+      <c r="D43" s="16"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10"/>
@@ -11008,13 +11008,13 @@
       <c r="A44" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C44" s="17">
+      <c r="C44" s="15">
         <v>392.44</v>
       </c>
-      <c r="D44" s="18"/>
+      <c r="D44" s="16"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -11023,13 +11023,13 @@
       <c r="A45" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C45" s="17">
+      <c r="C45" s="15">
         <v>191.09</v>
       </c>
-      <c r="D45" s="18"/>
+      <c r="D45" s="16"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
@@ -11038,13 +11038,13 @@
       <c r="A46" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="17">
+      <c r="C46" s="15">
         <v>476.39</v>
       </c>
-      <c r="D46" s="18"/>
+      <c r="D46" s="16"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
@@ -11053,13 +11053,13 @@
       <c r="A47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C47" s="17">
+      <c r="C47" s="15">
         <v>3547.64</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="17" t="s">
         <v>94</v>
       </c>
       <c r="E47" s="10"/>
@@ -11070,13 +11070,13 @@
       <c r="A48" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="15">
         <v>3547.64</v>
       </c>
-      <c r="D48" s="18"/>
+      <c r="D48" s="16"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10"/>
@@ -11085,13 +11085,13 @@
       <c r="A49" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C49" s="17">
+      <c r="C49" s="15">
         <v>3547.64</v>
       </c>
-      <c r="D49" s="18"/>
+      <c r="D49" s="16"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
@@ -11100,13 +11100,13 @@
       <c r="A50" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B50" s="16" t="s">
+      <c r="B50" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C50" s="17">
+      <c r="C50" s="15">
         <v>3547.64</v>
       </c>
-      <c r="D50" s="18"/>
+      <c r="D50" s="16"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
@@ -11115,13 +11115,13 @@
       <c r="A51" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="C51" s="17">
+      <c r="C51" s="15">
         <v>3547.64</v>
       </c>
-      <c r="D51" s="18"/>
+      <c r="D51" s="16"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10"/>
@@ -11130,13 +11130,13 @@
       <c r="A52" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="15">
         <v>3411.14</v>
       </c>
-      <c r="D52" s="18"/>
+      <c r="D52" s="16"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10"/>
@@ -11145,13 +11145,13 @@
       <c r="A53" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C53" s="17">
+      <c r="C53" s="15">
         <v>3411.14</v>
       </c>
-      <c r="D53" s="18"/>
+      <c r="D53" s="16"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10"/>
@@ -11160,13 +11160,13 @@
       <c r="A54" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="17">
+      <c r="C54" s="15">
         <v>3411.14</v>
       </c>
-      <c r="D54" s="18"/>
+      <c r="D54" s="16"/>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
@@ -11175,13 +11175,13 @@
       <c r="A55" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B55" s="16" t="s">
+      <c r="B55" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="C55" s="17">
+      <c r="C55" s="15">
         <v>3411.14</v>
       </c>
-      <c r="D55" s="18"/>
+      <c r="D55" s="16"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
@@ -11190,13 +11190,13 @@
       <c r="A56" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="17">
+      <c r="C56" s="15">
         <v>3411.14</v>
       </c>
-      <c r="D56" s="18"/>
+      <c r="D56" s="16"/>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
@@ -11205,13 +11205,13 @@
       <c r="A57" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="16" t="s">
+      <c r="B57" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C57" s="17">
+      <c r="C57" s="15">
         <v>3411.14</v>
       </c>
-      <c r="D57" s="18"/>
+      <c r="D57" s="16"/>
       <c r="E57" s="10"/>
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
@@ -11220,13 +11220,13 @@
       <c r="A58" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C58" s="17">
+      <c r="C58" s="15">
         <v>3411.14</v>
       </c>
-      <c r="D58" s="18"/>
+      <c r="D58" s="16"/>
       <c r="E58" s="10"/>
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
@@ -11235,13 +11235,13 @@
       <c r="A59" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="17">
+      <c r="C59" s="15">
         <v>3411.14</v>
       </c>
-      <c r="D59" s="18"/>
+      <c r="D59" s="16"/>
       <c r="E59" s="10"/>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
@@ -11250,13 +11250,13 @@
       <c r="A60" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="C60" s="17">
+      <c r="C60" s="15">
         <v>3411.14</v>
       </c>
-      <c r="D60" s="18"/>
+      <c r="D60" s="16"/>
       <c r="E60" s="10"/>
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
@@ -11265,13 +11265,13 @@
       <c r="A61" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="16" t="s">
+      <c r="B61" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="C61" s="17">
+      <c r="C61" s="15">
         <v>3411.14</v>
       </c>
-      <c r="D61" s="18"/>
+      <c r="D61" s="16"/>
       <c r="E61" s="10"/>
       <c r="F61" s="10"/>
       <c r="G61" s="10"/>
@@ -11280,13 +11280,13 @@
       <c r="A62" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="C62" s="21">
+      <c r="C62" s="19">
         <v>3411.14</v>
       </c>
-      <c r="D62" s="18"/>
+      <c r="D62" s="16"/>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
       <c r="G62" s="10"/>
@@ -11301,7 +11301,7 @@
       <c r="C63" s="13">
         <v>3411.14</v>
       </c>
-      <c r="D63" s="18"/>
+      <c r="D63" s="16"/>
       <c r="E63" s="10"/>
       <c r="F63" s="10"/>
       <c r="G63" s="10"/>
@@ -11310,13 +11310,13 @@
       <c r="A64" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B64" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="17">
+      <c r="C64" s="15">
         <v>3547.64</v>
       </c>
-      <c r="D64" s="18"/>
+      <c r="D64" s="16"/>
       <c r="E64" s="10"/>
       <c r="F64" s="10"/>
       <c r="G64" s="10"/>
@@ -11325,13 +11325,13 @@
       <c r="A65" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="16" t="s">
+      <c r="B65" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="17">
+      <c r="C65" s="15">
         <v>3547.64</v>
       </c>
-      <c r="D65" s="18"/>
+      <c r="D65" s="16"/>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
@@ -11340,13 +11340,13 @@
       <c r="A66" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C66" s="17">
+      <c r="C66" s="15">
         <v>3547.64</v>
       </c>
-      <c r="D66" s="18"/>
+      <c r="D66" s="16"/>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
@@ -11355,13 +11355,13 @@
       <c r="A67" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="C67" s="17">
+      <c r="C67" s="15">
         <v>3547.64</v>
       </c>
-      <c r="D67" s="18"/>
+      <c r="D67" s="16"/>
       <c r="E67" s="10"/>
       <c r="F67" s="10"/>
       <c r="G67" s="10"/>
@@ -11370,13 +11370,13 @@
       <c r="A68" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C68" s="17">
+      <c r="C68" s="15">
         <v>3547.64</v>
       </c>
-      <c r="D68" s="18"/>
+      <c r="D68" s="16"/>
       <c r="E68" s="10"/>
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
@@ -11385,13 +11385,13 @@
       <c r="A69" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="C69" s="17">
+      <c r="C69" s="15">
         <v>7507.5</v>
       </c>
-      <c r="D69" s="18"/>
+      <c r="D69" s="16"/>
       <c r="E69" s="10"/>
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
@@ -11400,13 +11400,13 @@
       <c r="A70" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C70" s="17">
+      <c r="C70" s="15">
         <v>7507.5</v>
       </c>
-      <c r="D70" s="18"/>
+      <c r="D70" s="16"/>
       <c r="E70" s="10"/>
       <c r="F70" s="10"/>
       <c r="G70" s="10"/>
@@ -11415,13 +11415,13 @@
       <c r="A71" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B71" s="16" t="s">
+      <c r="B71" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C71" s="17">
+      <c r="C71" s="15">
         <v>7507.5</v>
       </c>
-      <c r="D71" s="18"/>
+      <c r="D71" s="16"/>
       <c r="E71" s="10"/>
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
@@ -11430,13 +11430,13 @@
       <c r="A72" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="17">
+      <c r="C72" s="15">
         <v>7507.5</v>
       </c>
-      <c r="D72" s="18"/>
+      <c r="D72" s="16"/>
       <c r="E72" s="10"/>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
@@ -11445,13 +11445,13 @@
       <c r="A73" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="17">
+      <c r="C73" s="15">
         <v>7507.5</v>
       </c>
-      <c r="D73" s="18"/>
+      <c r="D73" s="16"/>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
@@ -11460,13 +11460,13 @@
       <c r="A74" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="C74" s="17">
+      <c r="C74" s="15">
         <v>7507.5</v>
       </c>
-      <c r="D74" s="18"/>
+      <c r="D74" s="16"/>
       <c r="E74" s="10"/>
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
@@ -11475,13 +11475,13 @@
       <c r="A75" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="B75" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C75" s="17">
+      <c r="C75" s="15">
         <v>7507.5</v>
       </c>
-      <c r="D75" s="18"/>
+      <c r="D75" s="16"/>
       <c r="E75" s="10"/>
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
@@ -11490,13 +11490,13 @@
       <c r="A76" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="C76" s="17">
+      <c r="C76" s="15">
         <v>7507.5</v>
       </c>
-      <c r="D76" s="18"/>
+      <c r="D76" s="16"/>
       <c r="E76" s="10"/>
       <c r="F76" s="10"/>
       <c r="G76" s="10"/>
@@ -11505,13 +11505,13 @@
       <c r="A77" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="C77" s="17">
+      <c r="C77" s="15">
         <v>7507.5</v>
       </c>
-      <c r="D77" s="18"/>
+      <c r="D77" s="16"/>
       <c r="E77" s="10"/>
       <c r="F77" s="10"/>
       <c r="G77" s="10"/>
@@ -11520,13 +11520,13 @@
       <c r="A78" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="B78" s="16" t="s">
+      <c r="B78" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="C78" s="17">
+      <c r="C78" s="15">
         <v>7507.5</v>
       </c>
-      <c r="D78" s="18"/>
+      <c r="D78" s="16"/>
       <c r="E78" s="10"/>
       <c r="F78" s="10"/>
       <c r="G78" s="10"/>
@@ -11535,13 +11535,13 @@
       <c r="A79" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="16" t="s">
+      <c r="B79" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="C79" s="17">
+      <c r="C79" s="15">
         <v>2013.38</v>
       </c>
-      <c r="D79" s="18"/>
+      <c r="D79" s="16"/>
       <c r="E79" s="10"/>
       <c r="F79" s="10"/>
       <c r="G79" s="10"/>
@@ -11550,13 +11550,13 @@
       <c r="A80" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="C80" s="17">
+      <c r="C80" s="15">
         <v>2013.38</v>
       </c>
-      <c r="D80" s="18"/>
+      <c r="D80" s="16"/>
       <c r="E80" s="10"/>
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
@@ -11565,13 +11565,13 @@
       <c r="A81" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="B81" s="16" t="s">
+      <c r="B81" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="C81" s="17">
+      <c r="C81" s="15">
         <v>2013.38</v>
       </c>
-      <c r="D81" s="18"/>
+      <c r="D81" s="16"/>
       <c r="E81" s="10"/>
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
@@ -11580,13 +11580,13 @@
       <c r="A82" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="C82" s="17">
+      <c r="C82" s="15">
         <v>2013.38</v>
       </c>
-      <c r="D82" s="18"/>
+      <c r="D82" s="16"/>
       <c r="E82" s="10"/>
       <c r="F82" s="10"/>
       <c r="G82" s="10"/>
@@ -11595,13 +11595,13 @@
       <c r="A83" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B83" s="16" t="s">
+      <c r="B83" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="C83" s="17">
+      <c r="C83" s="15">
         <v>2013.38</v>
       </c>
-      <c r="D83" s="18"/>
+      <c r="D83" s="16"/>
       <c r="E83" s="10"/>
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
@@ -11610,13 +11610,13 @@
       <c r="A84" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B84" s="16" t="s">
+      <c r="B84" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="C84" s="17">
+      <c r="C84" s="15">
         <v>2013.38</v>
       </c>
-      <c r="D84" s="18"/>
+      <c r="D84" s="16"/>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
@@ -11625,13 +11625,13 @@
       <c r="A85" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="B85" s="16" t="s">
+      <c r="B85" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C85" s="17">
+      <c r="C85" s="15">
         <v>2013.38</v>
       </c>
-      <c r="D85" s="18"/>
+      <c r="D85" s="16"/>
       <c r="E85" s="10"/>
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
@@ -11640,13 +11640,13 @@
       <c r="A86" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B86" s="16" t="s">
+      <c r="B86" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="C86" s="17">
+      <c r="C86" s="15">
         <v>2013.38</v>
       </c>
-      <c r="D86" s="18"/>
+      <c r="D86" s="16"/>
       <c r="E86" s="10"/>
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
@@ -11655,13 +11655,13 @@
       <c r="A87" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B87" s="16" t="s">
+      <c r="B87" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="C87" s="17">
+      <c r="C87" s="15">
         <v>2013.38</v>
       </c>
-      <c r="D87" s="18"/>
+      <c r="D87" s="16"/>
       <c r="E87" s="10"/>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
@@ -11670,13 +11670,13 @@
       <c r="A88" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="C88" s="17">
+      <c r="C88" s="15">
         <v>102.38</v>
       </c>
-      <c r="D88" s="18"/>
+      <c r="D88" s="16"/>
       <c r="E88" s="10"/>
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
@@ -11685,16 +11685,16 @@
       <c r="A89" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B89" s="16" t="s">
+      <c r="B89" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C89" s="17">
+      <c r="C89" s="15">
         <v>136.5</v>
       </c>
-      <c r="D89" s="31" t="s">
+      <c r="D89" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="E89" s="30"/>
+      <c r="E89" s="28"/>
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
     </row>
@@ -11702,13 +11702,13 @@
       <c r="A90" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="B90" s="16" t="s">
+      <c r="B90" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C90" s="17">
+      <c r="C90" s="15">
         <v>85.31</v>
       </c>
-      <c r="D90" s="18"/>
+      <c r="D90" s="16"/>
       <c r="E90" s="10"/>
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
@@ -11717,13 +11717,13 @@
       <c r="A91" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B91" s="16" t="s">
+      <c r="B91" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C91" s="17">
+      <c r="C91" s="15">
         <v>170.63</v>
       </c>
-      <c r="D91" s="18"/>
+      <c r="D91" s="16"/>
       <c r="E91" s="10"/>
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
@@ -11732,13 +11732,13 @@
       <c r="A92" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B92" s="16" t="s">
+      <c r="B92" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C92" s="17">
+      <c r="C92" s="15">
         <v>85.31</v>
       </c>
-      <c r="D92" s="18"/>
+      <c r="D92" s="16"/>
       <c r="E92" s="10"/>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
@@ -11747,13 +11747,13 @@
       <c r="A93" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B93" s="16" t="s">
+      <c r="B93" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C93" s="17">
+      <c r="C93" s="15">
         <v>85.31</v>
       </c>
-      <c r="D93" s="18"/>
+      <c r="D93" s="16"/>
       <c r="E93" s="10"/>
       <c r="F93" s="10"/>
       <c r="G93" s="10"/>
@@ -11762,13 +11762,13 @@
       <c r="A94" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C94" s="17">
+      <c r="C94" s="15">
         <v>249.99</v>
       </c>
-      <c r="D94" s="18"/>
+      <c r="D94" s="16"/>
       <c r="E94" s="10"/>
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
@@ -11777,13 +11777,13 @@
       <c r="A95" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="B95" s="16" t="s">
+      <c r="B95" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C95" s="17">
+      <c r="C95" s="15">
         <v>5210.63</v>
       </c>
-      <c r="D95" s="18"/>
+      <c r="D95" s="16"/>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
@@ -11792,13 +11792,13 @@
       <c r="A96" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B96" s="16" t="s">
+      <c r="B96" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C96" s="17">
+      <c r="C96" s="15">
         <v>88.73</v>
       </c>
-      <c r="D96" s="18"/>
+      <c r="D96" s="16"/>
       <c r="E96" s="10"/>
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
@@ -11807,13 +11807,13 @@
       <c r="A97" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B97" s="16" t="s">
+      <c r="B97" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C97" s="17">
+      <c r="C97" s="15">
         <v>5419.05</v>
       </c>
-      <c r="D97" s="18"/>
+      <c r="D97" s="16"/>
       <c r="E97" s="10"/>
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
@@ -11822,13 +11822,13 @@
       <c r="A98" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="B98" s="16" t="s">
+      <c r="B98" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C98" s="17">
+      <c r="C98" s="15">
         <v>5419.05</v>
       </c>
-      <c r="D98" s="18"/>
+      <c r="D98" s="16"/>
       <c r="E98" s="10"/>
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
@@ -11837,13 +11837,13 @@
       <c r="A99" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="B99" s="16" t="s">
+      <c r="B99" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="C99" s="17">
+      <c r="C99" s="15">
         <v>88.73</v>
       </c>
-      <c r="D99" s="18"/>
+      <c r="D99" s="16"/>
       <c r="E99" s="10"/>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
@@ -11852,13 +11852,13 @@
       <c r="A100" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B100" s="16" t="s">
+      <c r="B100" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C100" s="17">
+      <c r="C100" s="15">
         <v>150.15</v>
       </c>
-      <c r="D100" s="18"/>
+      <c r="D100" s="16"/>
       <c r="E100" s="10"/>
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
@@ -11867,13 +11867,13 @@
       <c r="A101" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B101" s="16" t="s">
+      <c r="B101" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="C101" s="17">
+      <c r="C101" s="15">
         <v>19.11</v>
       </c>
-      <c r="D101" s="18"/>
+      <c r="D101" s="16"/>
       <c r="E101" s="10"/>
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
@@ -11882,16 +11882,16 @@
       <c r="A102" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="C102" s="17">
+      <c r="C102" s="15">
         <v>249.36</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D102" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="E102" s="15"/>
+      <c r="E102" s="34"/>
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
     </row>
@@ -11899,13 +11899,13 @@
       <c r="A103" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="B103" s="16" t="s">
+      <c r="B103" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C103" s="17">
+      <c r="C103" s="15">
         <v>203.39</v>
       </c>
-      <c r="D103" s="18"/>
+      <c r="D103" s="16"/>
       <c r="E103" s="10"/>
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
@@ -11914,13 +11914,13 @@
       <c r="A104" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B104" s="16" t="s">
+      <c r="B104" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C104" s="17">
+      <c r="C104" s="15">
         <v>361.73</v>
       </c>
-      <c r="D104" s="18"/>
+      <c r="D104" s="16"/>
       <c r="E104" s="10"/>
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
@@ -11929,13 +11929,13 @@
       <c r="A105" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B105" s="16" t="s">
+      <c r="B105" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C105" s="17">
+      <c r="C105" s="15">
         <v>197.93</v>
       </c>
-      <c r="D105" s="18"/>
+      <c r="D105" s="16"/>
       <c r="E105" s="10"/>
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
@@ -11944,13 +11944,13 @@
       <c r="A106" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C106" s="17">
+      <c r="C106" s="15">
         <v>293.48</v>
       </c>
-      <c r="D106" s="18"/>
+      <c r="D106" s="16"/>
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
@@ -11959,13 +11959,13 @@
       <c r="A107" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="B107" s="16" t="s">
+      <c r="B107" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C107" s="17">
+      <c r="C107" s="15">
         <v>354.9</v>
       </c>
-      <c r="D107" s="18"/>
+      <c r="D107" s="16"/>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
@@ -11974,13 +11974,13 @@
       <c r="A108" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C108" s="17">
+      <c r="C108" s="15">
         <v>189.74</v>
       </c>
-      <c r="D108" s="18"/>
+      <c r="D108" s="16"/>
       <c r="E108" s="10"/>
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
@@ -11989,13 +11989,13 @@
       <c r="A109" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B109" s="16" t="s">
+      <c r="B109" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C109" s="17">
+      <c r="C109" s="15">
         <v>358.31</v>
       </c>
-      <c r="D109" s="18"/>
+      <c r="D109" s="16"/>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
@@ -12004,13 +12004,13 @@
       <c r="A110" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="B110" s="16" t="s">
+      <c r="B110" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="C110" s="17">
+      <c r="C110" s="15">
         <v>546</v>
       </c>
-      <c r="D110" s="18"/>
+      <c r="D110" s="16"/>
       <c r="E110" s="10"/>
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
@@ -12019,13 +12019,13 @@
       <c r="A111" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B111" s="16" t="s">
+      <c r="B111" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="C111" s="17">
+      <c r="C111" s="15">
         <v>546</v>
       </c>
-      <c r="D111" s="18"/>
+      <c r="D111" s="16"/>
       <c r="E111" s="10"/>
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
@@ -12034,13 +12034,13 @@
       <c r="A112" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B112" s="16" t="s">
+      <c r="B112" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="C112" s="17">
+      <c r="C112" s="15">
         <v>511.88</v>
       </c>
-      <c r="D112" s="18"/>
+      <c r="D112" s="16"/>
       <c r="E112" s="10"/>
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
@@ -12049,13 +12049,13 @@
       <c r="A113" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="B113" s="16" t="s">
+      <c r="B113" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="C113" s="17">
+      <c r="C113" s="15">
         <v>614.25</v>
       </c>
-      <c r="D113" s="18"/>
+      <c r="D113" s="16"/>
       <c r="E113" s="10"/>
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
@@ -12064,13 +12064,13 @@
       <c r="A114" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="14" t="s">
         <v>230</v>
       </c>
-      <c r="C114" s="17">
+      <c r="C114" s="15">
         <v>682.5</v>
       </c>
-      <c r="D114" s="18"/>
+      <c r="D114" s="16"/>
       <c r="E114" s="10"/>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
@@ -12079,13 +12079,13 @@
       <c r="A115" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B115" s="16" t="s">
+      <c r="B115" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="C115" s="17">
+      <c r="C115" s="15">
         <v>255.26</v>
       </c>
-      <c r="D115" s="18"/>
+      <c r="D115" s="16"/>
       <c r="E115" s="10"/>
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
@@ -12094,13 +12094,13 @@
       <c r="A116" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B116" s="16" t="s">
+      <c r="B116" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="C116" s="17">
+      <c r="C116" s="15">
         <v>40.950000000000003</v>
       </c>
-      <c r="D116" s="18"/>
+      <c r="D116" s="16"/>
       <c r="E116" s="10"/>
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
@@ -12109,13 +12109,13 @@
       <c r="A117" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B117" s="16" t="s">
+      <c r="B117" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="C117" s="17">
+      <c r="C117" s="15">
         <v>40.950000000000003</v>
       </c>
-      <c r="D117" s="18"/>
+      <c r="D117" s="16"/>
       <c r="E117" s="10"/>
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
@@ -12124,13 +12124,13 @@
       <c r="A118" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B118" s="16" t="s">
+      <c r="B118" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="C118" s="17">
+      <c r="C118" s="15">
         <v>273</v>
       </c>
-      <c r="D118" s="18"/>
+      <c r="D118" s="16"/>
       <c r="E118" s="10"/>
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
@@ -12139,13 +12139,13 @@
       <c r="A119" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="14" t="s">
         <v>240</v>
       </c>
-      <c r="C119" s="17">
+      <c r="C119" s="15">
         <v>409.5</v>
       </c>
-      <c r="D119" s="18"/>
+      <c r="D119" s="16"/>
       <c r="E119" s="10"/>
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
@@ -12154,13 +12154,13 @@
       <c r="A120" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B120" s="16" t="s">
+      <c r="B120" s="14" t="s">
         <v>242</v>
       </c>
-      <c r="C120" s="17">
+      <c r="C120" s="15">
         <v>511.88</v>
       </c>
-      <c r="D120" s="18"/>
+      <c r="D120" s="16"/>
       <c r="E120" s="10"/>
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
@@ -12169,13 +12169,13 @@
       <c r="A121" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B121" s="16" t="s">
+      <c r="B121" s="14" t="s">
         <v>244</v>
       </c>
-      <c r="C121" s="17">
+      <c r="C121" s="15">
         <v>30.03</v>
       </c>
-      <c r="D121" s="18"/>
+      <c r="D121" s="16"/>
       <c r="E121" s="10"/>
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
@@ -12184,13 +12184,13 @@
       <c r="A122" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="14" t="s">
         <v>246</v>
       </c>
-      <c r="C122" s="17">
+      <c r="C122" s="15">
         <v>30.03</v>
       </c>
-      <c r="D122" s="18"/>
+      <c r="D122" s="16"/>
       <c r="E122" s="10"/>
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
@@ -12199,13 +12199,13 @@
       <c r="A123" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B123" s="16" t="s">
+      <c r="B123" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="C123" s="17">
+      <c r="C123" s="15">
         <v>75.08</v>
       </c>
-      <c r="D123" s="32" t="s">
+      <c r="D123" s="30" t="s">
         <v>249</v>
       </c>
       <c r="E123" s="10"/>
@@ -12216,13 +12216,13 @@
       <c r="A124" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="C124" s="17">
+      <c r="C124" s="15">
         <v>107.84</v>
       </c>
-      <c r="D124" s="18"/>
+      <c r="D124" s="16"/>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
@@ -12231,13 +12231,13 @@
       <c r="A125" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="B125" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C125" s="21">
+      <c r="C125" s="19">
         <v>136.5</v>
       </c>
-      <c r="D125" s="18"/>
+      <c r="D125" s="16"/>
       <c r="E125" s="10"/>
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
@@ -12252,7 +12252,7 @@
       <c r="C126" s="13">
         <v>252.53</v>
       </c>
-      <c r="D126" s="18"/>
+      <c r="D126" s="16"/>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
@@ -12261,13 +12261,13 @@
       <c r="A127" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="C127" s="17">
+      <c r="C127" s="15">
         <v>252.53</v>
       </c>
-      <c r="D127" s="18"/>
+      <c r="D127" s="16"/>
       <c r="E127" s="10"/>
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
@@ -12276,13 +12276,13 @@
       <c r="A128" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B128" s="16" t="s">
+      <c r="B128" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="C128" s="17">
+      <c r="C128" s="15">
         <v>75.08</v>
       </c>
-      <c r="D128" s="18"/>
+      <c r="D128" s="16"/>
       <c r="E128" s="10"/>
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
@@ -12291,13 +12291,13 @@
       <c r="A129" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B129" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="C129" s="17">
+      <c r="C129" s="15">
         <v>68.25</v>
       </c>
-      <c r="D129" s="18"/>
+      <c r="D129" s="16"/>
       <c r="E129" s="10"/>
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
@@ -12306,13 +12306,13 @@
       <c r="A130" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B130" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="C130" s="17">
+      <c r="C130" s="15">
         <v>68.25</v>
       </c>
-      <c r="D130" s="18"/>
+      <c r="D130" s="16"/>
       <c r="E130" s="10"/>
       <c r="F130" s="10"/>
       <c r="G130" s="10"/>
@@ -12321,13 +12321,13 @@
       <c r="A131" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="B131" s="16" t="s">
+      <c r="B131" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="C131" s="17">
+      <c r="C131" s="15">
         <v>68.25</v>
       </c>
-      <c r="D131" s="18"/>
+      <c r="D131" s="16"/>
       <c r="E131" s="10"/>
       <c r="F131" s="10"/>
       <c r="G131" s="10"/>
@@ -12336,13 +12336,13 @@
       <c r="A132" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="B132" s="16" t="s">
+      <c r="B132" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="C132" s="17">
+      <c r="C132" s="15">
         <v>81.900000000000006</v>
       </c>
-      <c r="D132" s="18"/>
+      <c r="D132" s="16"/>
       <c r="E132" s="10"/>
       <c r="F132" s="10"/>
       <c r="G132" s="10"/>
@@ -12351,13 +12351,13 @@
       <c r="A133" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B133" s="16" t="s">
+      <c r="B133" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="C133" s="17">
+      <c r="C133" s="15">
         <v>88.73</v>
       </c>
-      <c r="D133" s="18"/>
+      <c r="D133" s="16"/>
       <c r="E133" s="10"/>
       <c r="F133" s="10"/>
       <c r="G133" s="10"/>
@@ -12366,13 +12366,13 @@
       <c r="A134" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B134" s="16" t="s">
+      <c r="B134" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="C134" s="17">
+      <c r="C134" s="15">
         <v>88.73</v>
       </c>
-      <c r="D134" s="18"/>
+      <c r="D134" s="16"/>
       <c r="E134" s="10"/>
       <c r="F134" s="10"/>
       <c r="G134" s="10"/>
@@ -12381,13 +12381,13 @@
       <c r="A135" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="B135" s="14" t="s">
         <v>273</v>
       </c>
-      <c r="C135" s="17">
+      <c r="C135" s="15">
         <v>101.01</v>
       </c>
-      <c r="D135" s="18"/>
+      <c r="D135" s="16"/>
       <c r="E135" s="10"/>
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
@@ -12396,13 +12396,13 @@
       <c r="A136" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="B136" s="16" t="s">
+      <c r="B136" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="C136" s="17">
+      <c r="C136" s="15">
         <v>88.73</v>
       </c>
-      <c r="D136" s="18"/>
+      <c r="D136" s="16"/>
       <c r="E136" s="10"/>
       <c r="F136" s="10"/>
       <c r="G136" s="10"/>
@@ -12411,13 +12411,13 @@
       <c r="A137" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B137" s="16" t="s">
+      <c r="B137" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="C137" s="17">
+      <c r="C137" s="15">
         <v>75.08</v>
       </c>
-      <c r="D137" s="18"/>
+      <c r="D137" s="16"/>
       <c r="E137" s="10"/>
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
@@ -12426,13 +12426,13 @@
       <c r="A138" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B138" s="16" t="s">
+      <c r="B138" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C138" s="17">
+      <c r="C138" s="15">
         <v>84.63</v>
       </c>
-      <c r="D138" s="18"/>
+      <c r="D138" s="16"/>
       <c r="E138" s="10"/>
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
@@ -12441,16 +12441,16 @@
       <c r="A139" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B139" s="16" t="s">
+      <c r="B139" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="C139" s="17">
+      <c r="C139" s="15">
         <v>517.34</v>
       </c>
-      <c r="D139" s="31" t="s">
+      <c r="D139" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="E139" s="30"/>
+      <c r="E139" s="28"/>
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
     </row>
@@ -12458,13 +12458,13 @@
       <c r="A140" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B140" s="16" t="s">
+      <c r="B140" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="C140" s="17">
+      <c r="C140" s="15">
         <v>517.34</v>
       </c>
-      <c r="D140" s="18"/>
+      <c r="D140" s="16"/>
       <c r="E140" s="10"/>
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
@@ -12473,13 +12473,13 @@
       <c r="A141" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B141" s="16" t="s">
+      <c r="B141" s="14" t="s">
         <v>286</v>
       </c>
-      <c r="C141" s="17">
+      <c r="C141" s="15">
         <v>530.99</v>
       </c>
-      <c r="D141" s="18"/>
+      <c r="D141" s="16"/>
       <c r="E141" s="10"/>
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
@@ -12488,13 +12488,13 @@
       <c r="A142" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B142" s="16" t="s">
+      <c r="B142" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="C142" s="17">
+      <c r="C142" s="15">
         <v>530.99</v>
       </c>
-      <c r="D142" s="18"/>
+      <c r="D142" s="16"/>
       <c r="E142" s="10"/>
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
@@ -12503,13 +12503,13 @@
       <c r="A143" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B143" s="16" t="s">
+      <c r="B143" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="C143" s="17">
+      <c r="C143" s="15">
         <v>551.46</v>
       </c>
-      <c r="D143" s="18"/>
+      <c r="D143" s="16"/>
       <c r="E143" s="10"/>
       <c r="F143" s="10"/>
       <c r="G143" s="10"/>
@@ -12518,13 +12518,13 @@
       <c r="A144" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B144" s="16" t="s">
+      <c r="B144" s="14" t="s">
         <v>292</v>
       </c>
-      <c r="C144" s="17">
+      <c r="C144" s="15">
         <v>1064.7</v>
       </c>
-      <c r="D144" s="18"/>
+      <c r="D144" s="16"/>
       <c r="E144" s="10"/>
       <c r="F144" s="10"/>
       <c r="G144" s="10"/>
@@ -12533,13 +12533,13 @@
       <c r="A145" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B145" s="16" t="s">
+      <c r="B145" s="14" t="s">
         <v>294</v>
       </c>
-      <c r="C145" s="17">
+      <c r="C145" s="15">
         <v>1064.7</v>
       </c>
-      <c r="D145" s="18"/>
+      <c r="D145" s="16"/>
       <c r="E145" s="10"/>
       <c r="F145" s="10"/>
       <c r="G145" s="10"/>
@@ -12548,13 +12548,13 @@
       <c r="A146" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B146" s="16" t="s">
+      <c r="B146" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="C146" s="17">
+      <c r="C146" s="15">
         <v>442.26</v>
       </c>
-      <c r="D146" s="18"/>
+      <c r="D146" s="16"/>
       <c r="E146" s="10"/>
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
@@ -12563,13 +12563,13 @@
       <c r="A147" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B147" s="16" t="s">
+      <c r="B147" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="C147" s="17">
+      <c r="C147" s="15">
         <v>469.56</v>
       </c>
-      <c r="D147" s="18"/>
+      <c r="D147" s="16"/>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
       <c r="G147" s="10"/>
@@ -12578,13 +12578,13 @@
       <c r="A148" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="B148" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C148" s="17">
+      <c r="C148" s="15">
         <v>339.89</v>
       </c>
-      <c r="D148" s="18"/>
+      <c r="D148" s="16"/>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
       <c r="G148" s="10"/>
@@ -12593,13 +12593,13 @@
       <c r="A149" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="B149" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C149" s="17">
+      <c r="C149" s="15">
         <v>360.36</v>
       </c>
-      <c r="D149" s="18"/>
+      <c r="D149" s="16"/>
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
       <c r="G149" s="10"/>
@@ -12608,13 +12608,13 @@
       <c r="A150" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B150" s="16" t="s">
+      <c r="B150" s="14" t="s">
         <v>304</v>
       </c>
-      <c r="C150" s="17">
+      <c r="C150" s="15">
         <v>476.39</v>
       </c>
-      <c r="D150" s="18"/>
+      <c r="D150" s="16"/>
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
       <c r="G150" s="10"/>
@@ -12623,13 +12623,13 @@
       <c r="A151" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B151" s="16" t="s">
+      <c r="B151" s="14" t="s">
         <v>306</v>
       </c>
-      <c r="C151" s="17">
+      <c r="C151" s="15">
         <v>496.86</v>
       </c>
-      <c r="D151" s="18"/>
+      <c r="D151" s="16"/>
       <c r="E151" s="10"/>
       <c r="F151" s="10"/>
       <c r="G151" s="10"/>
@@ -12638,13 +12638,13 @@
       <c r="A152" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B152" s="16" t="s">
+      <c r="B152" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="C152" s="17">
+      <c r="C152" s="15">
         <v>339.89</v>
       </c>
-      <c r="D152" s="18"/>
+      <c r="D152" s="16"/>
       <c r="E152" s="10"/>
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
@@ -12653,13 +12653,13 @@
       <c r="A153" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B153" s="16" t="s">
+      <c r="B153" s="14" t="s">
         <v>310</v>
       </c>
-      <c r="C153" s="17">
+      <c r="C153" s="15">
         <v>360.36</v>
       </c>
-      <c r="D153" s="18"/>
+      <c r="D153" s="16"/>
       <c r="E153" s="10"/>
       <c r="F153" s="10"/>
       <c r="G153" s="10"/>
@@ -12668,13 +12668,13 @@
       <c r="A154" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B154" s="16" t="s">
+      <c r="B154" s="14" t="s">
         <v>312</v>
       </c>
-      <c r="C154" s="17">
+      <c r="C154" s="15">
         <v>503.69</v>
       </c>
-      <c r="D154" s="18"/>
+      <c r="D154" s="16"/>
       <c r="E154" s="10"/>
       <c r="F154" s="10"/>
       <c r="G154" s="10"/>
@@ -12683,13 +12683,13 @@
       <c r="A155" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B155" s="16" t="s">
+      <c r="B155" s="14" t="s">
         <v>314</v>
       </c>
-      <c r="C155" s="17">
+      <c r="C155" s="15">
         <v>524.16</v>
       </c>
-      <c r="D155" s="18"/>
+      <c r="D155" s="16"/>
       <c r="E155" s="10"/>
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
@@ -12698,13 +12698,13 @@
       <c r="A156" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B156" s="16" t="s">
+      <c r="B156" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="C156" s="17">
+      <c r="C156" s="15">
         <v>339.89</v>
       </c>
-      <c r="D156" s="18"/>
+      <c r="D156" s="16"/>
       <c r="E156" s="10"/>
       <c r="F156" s="10"/>
       <c r="G156" s="10"/>
@@ -12713,13 +12713,13 @@
       <c r="A157" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B157" s="16" t="s">
+      <c r="B157" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="C157" s="17">
+      <c r="C157" s="15">
         <v>360.36</v>
       </c>
-      <c r="D157" s="18"/>
+      <c r="D157" s="16"/>
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
@@ -12728,13 +12728,13 @@
       <c r="A158" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B158" s="16" t="s">
+      <c r="B158" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="C158" s="17">
+      <c r="C158" s="15">
         <v>476.39</v>
       </c>
-      <c r="D158" s="18"/>
+      <c r="D158" s="16"/>
       <c r="E158" s="10"/>
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
@@ -12743,13 +12743,13 @@
       <c r="A159" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B159" s="16" t="s">
+      <c r="B159" s="14" t="s">
         <v>322</v>
       </c>
-      <c r="C159" s="17">
+      <c r="C159" s="15">
         <v>496.86</v>
       </c>
-      <c r="D159" s="18"/>
+      <c r="D159" s="16"/>
       <c r="E159" s="10"/>
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
@@ -12758,13 +12758,13 @@
       <c r="A160" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B160" s="16" t="s">
+      <c r="B160" s="14" t="s">
         <v>324</v>
       </c>
-      <c r="C160" s="17">
+      <c r="C160" s="15">
         <v>339.89</v>
       </c>
-      <c r="D160" s="18"/>
+      <c r="D160" s="16"/>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
@@ -12773,13 +12773,13 @@
       <c r="A161" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B161" s="16" t="s">
+      <c r="B161" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="C161" s="17">
+      <c r="C161" s="15">
         <v>374.01</v>
       </c>
-      <c r="D161" s="18"/>
+      <c r="D161" s="16"/>
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
@@ -12788,13 +12788,13 @@
       <c r="A162" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B162" s="16" t="s">
+      <c r="B162" s="14" t="s">
         <v>328</v>
       </c>
-      <c r="C162" s="17">
+      <c r="C162" s="15">
         <v>394.49</v>
       </c>
-      <c r="D162" s="18"/>
+      <c r="D162" s="16"/>
       <c r="E162" s="10"/>
       <c r="F162" s="10"/>
       <c r="G162" s="10"/>
@@ -12803,13 +12803,13 @@
       <c r="A163" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B163" s="16" t="s">
+      <c r="B163" s="14" t="s">
         <v>330</v>
       </c>
-      <c r="C163" s="17">
+      <c r="C163" s="15">
         <v>477.75</v>
       </c>
-      <c r="D163" s="18"/>
+      <c r="D163" s="16"/>
       <c r="E163" s="10"/>
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
@@ -12818,13 +12818,13 @@
       <c r="A164" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B164" s="16" t="s">
+      <c r="B164" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="C164" s="17">
+      <c r="C164" s="15">
         <v>498.23</v>
       </c>
-      <c r="D164" s="18"/>
+      <c r="D164" s="16"/>
       <c r="E164" s="10"/>
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
@@ -12833,13 +12833,13 @@
       <c r="A165" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="B165" s="16" t="s">
+      <c r="B165" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="C165" s="17">
+      <c r="C165" s="15">
         <v>414.96</v>
       </c>
-      <c r="D165" s="18"/>
+      <c r="D165" s="16"/>
       <c r="E165" s="10"/>
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
@@ -12848,13 +12848,13 @@
       <c r="A166" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B166" s="16" t="s">
+      <c r="B166" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="C166" s="17">
+      <c r="C166" s="15">
         <v>442.26</v>
       </c>
-      <c r="D166" s="18"/>
+      <c r="D166" s="16"/>
       <c r="E166" s="10"/>
       <c r="F166" s="10"/>
       <c r="G166" s="10"/>
@@ -12863,13 +12863,13 @@
       <c r="A167" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="B167" s="16" t="s">
+      <c r="B167" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="C167" s="17">
+      <c r="C167" s="15">
         <v>442.26</v>
       </c>
-      <c r="D167" s="18"/>
+      <c r="D167" s="16"/>
       <c r="E167" s="10"/>
       <c r="F167" s="10"/>
       <c r="G167" s="10"/>
@@ -12878,13 +12878,13 @@
       <c r="A168" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="B168" s="16" t="s">
+      <c r="B168" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="C168" s="17">
+      <c r="C168" s="15">
         <v>483.21</v>
       </c>
-      <c r="D168" s="18"/>
+      <c r="D168" s="16"/>
       <c r="E168" s="10"/>
       <c r="F168" s="10"/>
       <c r="G168" s="10"/>
@@ -12893,13 +12893,13 @@
       <c r="A169" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B169" s="16" t="s">
+      <c r="B169" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="C169" s="17">
+      <c r="C169" s="15">
         <v>483.21</v>
       </c>
-      <c r="D169" s="18"/>
+      <c r="D169" s="16"/>
       <c r="E169" s="10"/>
       <c r="F169" s="10"/>
       <c r="G169" s="10"/>
@@ -12908,13 +12908,13 @@
       <c r="A170" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B170" s="16" t="s">
+      <c r="B170" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="C170" s="17">
+      <c r="C170" s="15">
         <v>442.26</v>
       </c>
-      <c r="D170" s="18"/>
+      <c r="D170" s="16"/>
       <c r="E170" s="10"/>
       <c r="F170" s="10"/>
       <c r="G170" s="10"/>
@@ -12923,13 +12923,13 @@
       <c r="A171" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B171" s="16" t="s">
+      <c r="B171" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="C171" s="17">
+      <c r="C171" s="15">
         <v>442.26</v>
       </c>
-      <c r="D171" s="18"/>
+      <c r="D171" s="16"/>
       <c r="E171" s="10"/>
       <c r="F171" s="10"/>
       <c r="G171" s="10"/>
@@ -12938,13 +12938,13 @@
       <c r="A172" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B172" s="16" t="s">
+      <c r="B172" s="14" t="s">
         <v>348</v>
       </c>
-      <c r="C172" s="17">
+      <c r="C172" s="15">
         <v>483.21</v>
       </c>
-      <c r="D172" s="18"/>
+      <c r="D172" s="16"/>
       <c r="E172" s="10"/>
       <c r="F172" s="10"/>
       <c r="G172" s="10"/>
@@ -12953,13 +12953,13 @@
       <c r="A173" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B173" s="16" t="s">
+      <c r="B173" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="C173" s="17">
+      <c r="C173" s="15">
         <v>483.21</v>
       </c>
-      <c r="D173" s="18"/>
+      <c r="D173" s="16"/>
       <c r="E173" s="10"/>
       <c r="F173" s="10"/>
       <c r="G173" s="10"/>
@@ -12968,13 +12968,13 @@
       <c r="A174" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B174" s="16" t="s">
+      <c r="B174" s="14" t="s">
         <v>352</v>
       </c>
-      <c r="C174" s="17">
+      <c r="C174" s="15">
         <v>483.21</v>
       </c>
-      <c r="D174" s="18"/>
+      <c r="D174" s="16"/>
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
       <c r="G174" s="10"/>
@@ -12983,13 +12983,13 @@
       <c r="A175" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B175" s="16" t="s">
+      <c r="B175" s="14" t="s">
         <v>354</v>
       </c>
-      <c r="C175" s="17">
+      <c r="C175" s="15">
         <v>483.21</v>
       </c>
-      <c r="D175" s="18"/>
+      <c r="D175" s="16"/>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
       <c r="G175" s="10"/>
@@ -12998,13 +12998,13 @@
       <c r="A176" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B176" s="16" t="s">
+      <c r="B176" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="C176" s="17">
+      <c r="C176" s="15">
         <v>524.16</v>
       </c>
-      <c r="D176" s="18"/>
+      <c r="D176" s="16"/>
       <c r="E176" s="10"/>
       <c r="F176" s="10"/>
       <c r="G176" s="10"/>
@@ -13013,13 +13013,13 @@
       <c r="A177" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B177" s="16" t="s">
+      <c r="B177" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="C177" s="17">
+      <c r="C177" s="15">
         <v>524.16</v>
       </c>
-      <c r="D177" s="18"/>
+      <c r="D177" s="16"/>
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
       <c r="G177" s="10"/>
@@ -13028,13 +13028,13 @@
       <c r="A178" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="B178" s="16" t="s">
+      <c r="B178" s="14" t="s">
         <v>360</v>
       </c>
-      <c r="C178" s="17">
+      <c r="C178" s="15">
         <v>654.94000000000005</v>
       </c>
-      <c r="D178" s="18"/>
+      <c r="D178" s="16"/>
       <c r="E178" s="10"/>
       <c r="F178" s="10"/>
       <c r="G178" s="10"/>
@@ -13043,13 +13043,13 @@
       <c r="A179" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B179" s="16" t="s">
+      <c r="B179" s="14" t="s">
         <v>362</v>
       </c>
-      <c r="C179" s="17">
+      <c r="C179" s="15">
         <v>721.86</v>
       </c>
-      <c r="D179" s="18"/>
+      <c r="D179" s="16"/>
       <c r="E179" s="10"/>
       <c r="F179" s="10"/>
       <c r="G179" s="10"/>
@@ -13058,13 +13058,13 @@
       <c r="A180" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="B180" s="16" t="s">
+      <c r="B180" s="14" t="s">
         <v>364</v>
       </c>
-      <c r="C180" s="17">
+      <c r="C180" s="15">
         <v>721.86</v>
       </c>
-      <c r="D180" s="18"/>
+      <c r="D180" s="16"/>
       <c r="E180" s="10"/>
       <c r="F180" s="10"/>
       <c r="G180" s="10"/>
@@ -13073,13 +13073,13 @@
       <c r="A181" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B181" s="16" t="s">
+      <c r="B181" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="C181" s="17">
+      <c r="C181" s="15">
         <v>839.99</v>
       </c>
-      <c r="D181" s="18"/>
+      <c r="D181" s="16"/>
       <c r="E181" s="10"/>
       <c r="F181" s="10"/>
       <c r="G181" s="10"/>
@@ -13088,13 +13088,13 @@
       <c r="A182" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="B182" s="16" t="s">
+      <c r="B182" s="14" t="s">
         <v>368</v>
       </c>
-      <c r="C182" s="17">
+      <c r="C182" s="15">
         <v>654.94000000000005</v>
       </c>
-      <c r="D182" s="18"/>
+      <c r="D182" s="16"/>
       <c r="E182" s="10"/>
       <c r="F182" s="10"/>
       <c r="G182" s="10"/>
@@ -13103,13 +13103,13 @@
       <c r="A183" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="B183" s="16" t="s">
+      <c r="B183" s="14" t="s">
         <v>370</v>
       </c>
-      <c r="C183" s="17">
+      <c r="C183" s="15">
         <v>721.86</v>
       </c>
-      <c r="D183" s="18"/>
+      <c r="D183" s="16"/>
       <c r="E183" s="10"/>
       <c r="F183" s="10"/>
       <c r="G183" s="10"/>
@@ -13118,13 +13118,13 @@
       <c r="A184" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="B184" s="16" t="s">
+      <c r="B184" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="C184" s="17">
+      <c r="C184" s="15">
         <v>721.86</v>
       </c>
-      <c r="D184" s="18"/>
+      <c r="D184" s="16"/>
       <c r="E184" s="10"/>
       <c r="F184" s="10"/>
       <c r="G184" s="10"/>
@@ -13133,13 +13133,13 @@
       <c r="A185" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="B185" s="16" t="s">
+      <c r="B185" s="14" t="s">
         <v>374</v>
       </c>
-      <c r="C185" s="17">
+      <c r="C185" s="15">
         <v>839.99</v>
       </c>
-      <c r="D185" s="18"/>
+      <c r="D185" s="16"/>
       <c r="E185" s="10"/>
       <c r="F185" s="10"/>
       <c r="G185" s="10"/>
@@ -13148,13 +13148,13 @@
       <c r="A186" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B186" s="16" t="s">
+      <c r="B186" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="C186" s="17">
+      <c r="C186" s="15">
         <v>31.4</v>
       </c>
-      <c r="D186" s="18"/>
+      <c r="D186" s="16"/>
       <c r="E186" s="10"/>
       <c r="F186" s="10"/>
       <c r="G186" s="10"/>
@@ -13163,13 +13163,13 @@
       <c r="A187" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="B187" s="16" t="s">
+      <c r="B187" s="14" t="s">
         <v>378</v>
       </c>
-      <c r="C187" s="17">
+      <c r="C187" s="15">
         <v>517.34</v>
       </c>
-      <c r="D187" s="18"/>
+      <c r="D187" s="16"/>
       <c r="E187" s="10"/>
       <c r="F187" s="10"/>
       <c r="G187" s="10"/>
@@ -13178,13 +13178,13 @@
       <c r="A188" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="B188" s="20" t="s">
+      <c r="B188" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="C188" s="21">
+      <c r="C188" s="19">
         <v>537.80999999999995</v>
       </c>
-      <c r="D188" s="18"/>
+      <c r="D188" s="16"/>
       <c r="E188" s="10"/>
       <c r="F188" s="10"/>
       <c r="G188" s="10"/>
@@ -13199,7 +13199,7 @@
       <c r="C189" s="13">
         <v>365.82</v>
       </c>
-      <c r="D189" s="18"/>
+      <c r="D189" s="16"/>
       <c r="E189" s="10"/>
       <c r="F189" s="10"/>
       <c r="G189" s="10"/>
@@ -13208,13 +13208,13 @@
       <c r="A190" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B190" s="16" t="s">
+      <c r="B190" s="14" t="s">
         <v>384</v>
       </c>
-      <c r="C190" s="17">
+      <c r="C190" s="15">
         <v>408.14</v>
       </c>
-      <c r="D190" s="18"/>
+      <c r="D190" s="16"/>
       <c r="E190" s="10"/>
       <c r="F190" s="10"/>
       <c r="G190" s="10"/>
@@ -13223,13 +13223,13 @@
       <c r="A191" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="B191" s="16" t="s">
+      <c r="B191" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="C191" s="17">
+      <c r="C191" s="15">
         <v>428.61</v>
       </c>
-      <c r="D191" s="18"/>
+      <c r="D191" s="16"/>
       <c r="E191" s="10"/>
       <c r="F191" s="10"/>
       <c r="G191" s="10"/>
@@ -13238,13 +13238,13 @@
       <c r="A192" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="B192" s="16" t="s">
+      <c r="B192" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="C192" s="17">
+      <c r="C192" s="15">
         <v>634.71</v>
       </c>
-      <c r="D192" s="18"/>
+      <c r="D192" s="16"/>
       <c r="E192" s="10"/>
       <c r="F192" s="10"/>
       <c r="G192" s="10"/>
@@ -13253,13 +13253,13 @@
       <c r="A193" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="B193" s="16" t="s">
+      <c r="B193" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="C193" s="17">
+      <c r="C193" s="15">
         <v>634.71</v>
       </c>
-      <c r="D193" s="18"/>
+      <c r="D193" s="16"/>
       <c r="E193" s="10"/>
       <c r="F193" s="10"/>
       <c r="G193" s="10"/>
@@ -13268,13 +13268,13 @@
       <c r="A194" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="B194" s="16" t="s">
+      <c r="B194" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="C194" s="17">
+      <c r="C194" s="15">
         <v>614.25</v>
       </c>
-      <c r="D194" s="18"/>
+      <c r="D194" s="16"/>
       <c r="E194" s="10"/>
       <c r="F194" s="10"/>
       <c r="G194" s="10"/>
@@ -13283,13 +13283,13 @@
       <c r="A195" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B195" s="16" t="s">
+      <c r="B195" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="C195" s="17">
+      <c r="C195" s="15">
         <v>408.14</v>
       </c>
-      <c r="D195" s="18"/>
+      <c r="D195" s="16"/>
       <c r="E195" s="10"/>
       <c r="F195" s="10"/>
       <c r="G195" s="10"/>
@@ -13298,13 +13298,13 @@
       <c r="A196" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B196" s="16" t="s">
+      <c r="B196" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="C196" s="17">
+      <c r="C196" s="15">
         <v>503.69</v>
       </c>
-      <c r="D196" s="18"/>
+      <c r="D196" s="16"/>
       <c r="E196" s="10"/>
       <c r="F196" s="10"/>
       <c r="G196" s="10"/>
@@ -13313,13 +13313,13 @@
       <c r="A197" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="B197" s="16" t="s">
+      <c r="B197" s="14" t="s">
         <v>398</v>
       </c>
-      <c r="C197" s="17">
+      <c r="C197" s="15">
         <v>353.54</v>
       </c>
-      <c r="D197" s="18"/>
+      <c r="D197" s="16"/>
       <c r="E197" s="10"/>
       <c r="F197" s="10"/>
       <c r="G197" s="10"/>
@@ -13328,13 +13328,13 @@
       <c r="A198" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B198" s="16" t="s">
+      <c r="B198" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="C198" s="17">
+      <c r="C198" s="15">
         <v>353.54</v>
       </c>
-      <c r="D198" s="18"/>
+      <c r="D198" s="16"/>
       <c r="E198" s="10"/>
       <c r="F198" s="10"/>
       <c r="G198" s="10"/>
@@ -13343,13 +13343,13 @@
       <c r="A199" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B199" s="16" t="s">
+      <c r="B199" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="C199" s="17">
+      <c r="C199" s="15">
         <v>353.54</v>
       </c>
-      <c r="D199" s="18"/>
+      <c r="D199" s="16"/>
       <c r="E199" s="10"/>
       <c r="F199" s="10"/>
       <c r="G199" s="10"/>
@@ -13358,13 +13358,13 @@
       <c r="A200" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="B200" s="16" t="s">
+      <c r="B200" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="C200" s="17">
+      <c r="C200" s="15">
         <v>353.54</v>
       </c>
-      <c r="D200" s="18"/>
+      <c r="D200" s="16"/>
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
       <c r="G200" s="10"/>
@@ -13373,13 +13373,13 @@
       <c r="A201" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B201" s="16" t="s">
+      <c r="B201" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="C201" s="17">
+      <c r="C201" s="15">
         <v>1442.44</v>
       </c>
-      <c r="D201" s="18"/>
+      <c r="D201" s="16"/>
       <c r="E201" s="10"/>
       <c r="F201" s="10"/>
       <c r="G201" s="10"/>
@@ -13388,30 +13388,30 @@
       <c r="A202" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B202" s="16" t="s">
+      <c r="B202" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="C202" s="17">
+      <c r="C202" s="15">
         <v>30.03</v>
       </c>
-      <c r="D202" s="31" t="s">
+      <c r="D202" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="E202" s="29"/>
-      <c r="F202" s="30"/>
+      <c r="E202" s="27"/>
+      <c r="F202" s="28"/>
       <c r="G202" s="10"/>
     </row>
     <row r="203" spans="1:7" ht="27" customHeight="1">
       <c r="A203" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B203" s="16" t="s">
+      <c r="B203" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="C203" s="17">
+      <c r="C203" s="15">
         <v>6.83</v>
       </c>
-      <c r="D203" s="18"/>
+      <c r="D203" s="16"/>
       <c r="E203" s="10"/>
       <c r="F203" s="10"/>
       <c r="G203" s="10"/>
@@ -13420,13 +13420,13 @@
       <c r="A204" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B204" s="16" t="s">
+      <c r="B204" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="C204" s="17">
+      <c r="C204" s="15">
         <v>6.83</v>
       </c>
-      <c r="D204" s="18"/>
+      <c r="D204" s="16"/>
       <c r="E204" s="10"/>
       <c r="F204" s="10"/>
       <c r="G204" s="10"/>
@@ -13435,13 +13435,13 @@
       <c r="A205" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B205" s="16" t="s">
+      <c r="B205" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="C205" s="17">
+      <c r="C205" s="15">
         <v>47.78</v>
       </c>
-      <c r="D205" s="18"/>
+      <c r="D205" s="16"/>
       <c r="E205" s="10"/>
       <c r="F205" s="10"/>
       <c r="G205" s="10"/>
@@ -13450,13 +13450,13 @@
       <c r="A206" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B206" s="16" t="s">
+      <c r="B206" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="C206" s="17">
+      <c r="C206" s="15">
         <v>34.130000000000003</v>
       </c>
-      <c r="D206" s="18"/>
+      <c r="D206" s="16"/>
       <c r="E206" s="10"/>
       <c r="F206" s="10"/>
       <c r="G206" s="10"/>
@@ -13465,13 +13465,13 @@
       <c r="A207" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B207" s="16" t="s">
+      <c r="B207" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="C207" s="17">
+      <c r="C207" s="15">
         <v>21.84</v>
       </c>
-      <c r="D207" s="18"/>
+      <c r="D207" s="16"/>
       <c r="E207" s="10"/>
       <c r="F207" s="10"/>
       <c r="G207" s="10"/>
@@ -13480,13 +13480,13 @@
       <c r="A208" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B208" s="16" t="s">
+      <c r="B208" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="C208" s="17">
+      <c r="C208" s="15">
         <v>47.78</v>
       </c>
-      <c r="D208" s="18"/>
+      <c r="D208" s="16"/>
       <c r="E208" s="10"/>
       <c r="F208" s="10"/>
       <c r="G208" s="10"/>
@@ -13495,13 +13495,13 @@
       <c r="A209" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B209" s="16" t="s">
+      <c r="B209" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="C209" s="17">
+      <c r="C209" s="15">
         <v>47.78</v>
       </c>
-      <c r="D209" s="18"/>
+      <c r="D209" s="16"/>
       <c r="E209" s="10"/>
       <c r="F209" s="10"/>
       <c r="G209" s="10"/>
@@ -13510,13 +13510,13 @@
       <c r="A210" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B210" s="16" t="s">
+      <c r="B210" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="C210" s="22">
+      <c r="C210" s="20">
         <v>47.78</v>
       </c>
-      <c r="D210" s="18"/>
+      <c r="D210" s="16"/>
       <c r="E210" s="10"/>
       <c r="F210" s="10"/>
       <c r="G210" s="10"/>
@@ -13525,13 +13525,13 @@
       <c r="A211" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="B211" s="16" t="s">
+      <c r="B211" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="C211" s="17">
+      <c r="C211" s="15">
         <v>116.03</v>
       </c>
-      <c r="D211" s="18"/>
+      <c r="D211" s="16"/>
       <c r="E211" s="10"/>
       <c r="F211" s="10"/>
       <c r="G211" s="10"/>
@@ -13540,13 +13540,13 @@
       <c r="A212" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B212" s="16" t="s">
+      <c r="B212" s="14" t="s">
         <v>429</v>
       </c>
-      <c r="C212" s="17">
+      <c r="C212" s="15">
         <v>102.38</v>
       </c>
-      <c r="D212" s="18"/>
+      <c r="D212" s="16"/>
       <c r="E212" s="10"/>
       <c r="F212" s="10"/>
       <c r="G212" s="10"/>
@@ -13555,13 +13555,13 @@
       <c r="A213" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B213" s="16" t="s">
+      <c r="B213" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="C213" s="17">
+      <c r="C213" s="15">
         <v>122.85</v>
       </c>
-      <c r="D213" s="18"/>
+      <c r="D213" s="16"/>
       <c r="E213" s="10"/>
       <c r="F213" s="10"/>
       <c r="G213" s="10"/>
@@ -13570,13 +13570,13 @@
       <c r="A214" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B214" s="16" t="s">
+      <c r="B214" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="C214" s="17">
+      <c r="C214" s="15">
         <v>102.38</v>
       </c>
-      <c r="D214" s="18"/>
+      <c r="D214" s="16"/>
       <c r="E214" s="10"/>
       <c r="F214" s="10"/>
       <c r="G214" s="10"/>
@@ -13585,13 +13585,13 @@
       <c r="A215" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B215" s="16" t="s">
+      <c r="B215" s="14" t="s">
         <v>435</v>
       </c>
-      <c r="C215" s="17">
+      <c r="C215" s="15">
         <v>102.38</v>
       </c>
-      <c r="D215" s="18"/>
+      <c r="D215" s="16"/>
       <c r="E215" s="10"/>
       <c r="F215" s="10"/>
       <c r="G215" s="10"/>
@@ -13600,13 +13600,13 @@
       <c r="A216" s="3" t="s">
         <v>436</v>
       </c>
-      <c r="B216" s="16" t="s">
+      <c r="B216" s="14" t="s">
         <v>437</v>
       </c>
-      <c r="C216" s="17">
+      <c r="C216" s="15">
         <v>122.85</v>
       </c>
-      <c r="D216" s="18"/>
+      <c r="D216" s="16"/>
       <c r="E216" s="10"/>
       <c r="F216" s="10"/>
       <c r="G216" s="10"/>
@@ -13615,13 +13615,13 @@
       <c r="A217" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B217" s="16" t="s">
+      <c r="B217" s="14" t="s">
         <v>439</v>
       </c>
-      <c r="C217" s="17">
+      <c r="C217" s="15">
         <v>102.38</v>
       </c>
-      <c r="D217" s="18"/>
+      <c r="D217" s="16"/>
       <c r="E217" s="10"/>
       <c r="F217" s="10"/>
       <c r="G217" s="10"/>
@@ -13630,13 +13630,13 @@
       <c r="A218" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="B218" s="16" t="s">
+      <c r="B218" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="C218" s="17">
+      <c r="C218" s="15">
         <v>27.3</v>
       </c>
-      <c r="D218" s="18"/>
+      <c r="D218" s="16"/>
       <c r="E218" s="10"/>
       <c r="F218" s="10"/>
       <c r="G218" s="10"/>
@@ -13645,13 +13645,13 @@
       <c r="A219" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B219" s="16" t="s">
+      <c r="B219" s="14" t="s">
         <v>443</v>
       </c>
-      <c r="C219" s="17">
+      <c r="C219" s="15">
         <v>150.15</v>
       </c>
-      <c r="D219" s="18"/>
+      <c r="D219" s="16"/>
       <c r="E219" s="10"/>
       <c r="F219" s="10"/>
       <c r="G219" s="10"/>
@@ -13660,13 +13660,13 @@
       <c r="A220" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B220" s="16" t="s">
+      <c r="B220" s="14" t="s">
         <v>445</v>
       </c>
-      <c r="C220" s="17">
+      <c r="C220" s="15">
         <v>150.15</v>
       </c>
-      <c r="D220" s="18"/>
+      <c r="D220" s="16"/>
       <c r="E220" s="10"/>
       <c r="F220" s="10"/>
       <c r="G220" s="10"/>
@@ -13675,13 +13675,13 @@
       <c r="A221" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B221" s="16" t="s">
+      <c r="B221" s="14" t="s">
         <v>447</v>
       </c>
-      <c r="C221" s="17">
+      <c r="C221" s="15">
         <v>177.45</v>
       </c>
-      <c r="D221" s="18"/>
+      <c r="D221" s="16"/>
       <c r="E221" s="10"/>
       <c r="F221" s="10"/>
       <c r="G221" s="10"/>
@@ -13690,13 +13690,13 @@
       <c r="A222" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B222" s="16" t="s">
+      <c r="B222" s="14" t="s">
         <v>449</v>
       </c>
-      <c r="C222" s="17">
+      <c r="C222" s="15">
         <v>111.56</v>
       </c>
-      <c r="D222" s="18"/>
+      <c r="D222" s="16"/>
       <c r="E222" s="10"/>
       <c r="F222" s="10"/>
       <c r="G222" s="10"/>
@@ -13705,13 +13705,13 @@
       <c r="A223" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B223" s="16" t="s">
+      <c r="B223" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="C223" s="17">
+      <c r="C223" s="15">
         <v>102.38</v>
       </c>
-      <c r="D223" s="18"/>
+      <c r="D223" s="16"/>
       <c r="E223" s="10"/>
       <c r="F223" s="10"/>
       <c r="G223" s="10"/>
@@ -13720,13 +13720,13 @@
       <c r="A224" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="B224" s="16" t="s">
+      <c r="B224" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="C224" s="17">
+      <c r="C224" s="15">
         <v>122.85</v>
       </c>
-      <c r="D224" s="18"/>
+      <c r="D224" s="16"/>
       <c r="E224" s="10"/>
       <c r="F224" s="10"/>
       <c r="G224" s="10"/>
@@ -13735,13 +13735,13 @@
       <c r="A225" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B225" s="16" t="s">
+      <c r="B225" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="C225" s="17">
+      <c r="C225" s="15">
         <v>91.46</v>
       </c>
-      <c r="D225" s="18"/>
+      <c r="D225" s="16"/>
       <c r="E225" s="10"/>
       <c r="F225" s="10"/>
       <c r="G225" s="10"/>
@@ -13750,13 +13750,13 @@
       <c r="A226" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="B226" s="16" t="s">
+      <c r="B226" s="14" t="s">
         <v>457</v>
       </c>
-      <c r="C226" s="17">
+      <c r="C226" s="15">
         <v>221.13</v>
       </c>
-      <c r="D226" s="18"/>
+      <c r="D226" s="16"/>
       <c r="E226" s="10"/>
       <c r="F226" s="10"/>
       <c r="G226" s="10"/>
@@ -13765,13 +13765,13 @@
       <c r="A227" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B227" s="16" t="s">
+      <c r="B227" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="C227" s="17">
+      <c r="C227" s="15">
         <v>955.5</v>
       </c>
-      <c r="D227" s="19" t="s">
+      <c r="D227" s="17" t="s">
         <v>460</v>
       </c>
       <c r="E227" s="10"/>
@@ -13782,13 +13782,13 @@
       <c r="A228" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B228" s="16" t="s">
+      <c r="B228" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="C228" s="17">
+      <c r="C228" s="15">
         <v>477.75</v>
       </c>
-      <c r="D228" s="18"/>
+      <c r="D228" s="16"/>
       <c r="E228" s="10"/>
       <c r="F228" s="10"/>
       <c r="G228" s="10"/>
@@ -13797,13 +13797,13 @@
       <c r="A229" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="B229" s="16" t="s">
+      <c r="B229" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="C229" s="17">
+      <c r="C229" s="15">
         <v>955.5</v>
       </c>
-      <c r="D229" s="18"/>
+      <c r="D229" s="16"/>
       <c r="E229" s="10"/>
       <c r="F229" s="10"/>
       <c r="G229" s="10"/>
@@ -13812,13 +13812,13 @@
       <c r="A230" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B230" s="16" t="s">
+      <c r="B230" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="C230" s="17">
+      <c r="C230" s="15">
         <v>477.75</v>
       </c>
-      <c r="D230" s="18"/>
+      <c r="D230" s="16"/>
       <c r="E230" s="10"/>
       <c r="F230" s="10"/>
       <c r="G230" s="10"/>
@@ -13827,13 +13827,13 @@
       <c r="A231" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="B231" s="16" t="s">
+      <c r="B231" s="14" t="s">
         <v>468</v>
       </c>
-      <c r="C231" s="17">
+      <c r="C231" s="15">
         <v>1076.99</v>
       </c>
-      <c r="D231" s="18"/>
+      <c r="D231" s="16"/>
       <c r="E231" s="10"/>
       <c r="F231" s="10"/>
       <c r="G231" s="10"/>
@@ -13842,13 +13842,13 @@
       <c r="A232" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B232" s="16" t="s">
+      <c r="B232" s="14" t="s">
         <v>470</v>
       </c>
-      <c r="C232" s="17">
+      <c r="C232" s="15">
         <v>1950.59</v>
       </c>
-      <c r="D232" s="18"/>
+      <c r="D232" s="16"/>
       <c r="E232" s="10"/>
       <c r="F232" s="10"/>
       <c r="G232" s="10"/>
@@ -13857,13 +13857,13 @@
       <c r="A233" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="B233" s="16" t="s">
+      <c r="B233" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="C233" s="17">
+      <c r="C233" s="15">
         <v>2100.7399999999998</v>
       </c>
-      <c r="D233" s="18"/>
+      <c r="D233" s="16"/>
       <c r="E233" s="10"/>
       <c r="F233" s="10"/>
       <c r="G233" s="10"/>
@@ -13872,13 +13872,13 @@
       <c r="A234" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B234" s="16" t="s">
+      <c r="B234" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="C234" s="17">
+      <c r="C234" s="15">
         <v>1445.54</v>
       </c>
-      <c r="D234" s="18"/>
+      <c r="D234" s="16"/>
       <c r="E234" s="10"/>
       <c r="F234" s="10"/>
       <c r="G234" s="10"/>
@@ -13887,13 +13887,13 @@
       <c r="A235" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="B235" s="16" t="s">
+      <c r="B235" s="14" t="s">
         <v>476</v>
       </c>
-      <c r="C235" s="17">
+      <c r="C235" s="15">
         <v>1582.04</v>
       </c>
-      <c r="D235" s="18"/>
+      <c r="D235" s="16"/>
       <c r="E235" s="10"/>
       <c r="F235" s="10"/>
       <c r="G235" s="10"/>
@@ -13902,30 +13902,30 @@
       <c r="A236" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="B236" s="16" t="s">
+      <c r="B236" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="C236" s="17">
+      <c r="C236" s="15">
         <v>255.26</v>
       </c>
-      <c r="D236" s="31" t="s">
+      <c r="D236" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="E236" s="29"/>
-      <c r="F236" s="30"/>
+      <c r="E236" s="27"/>
+      <c r="F236" s="28"/>
       <c r="G236" s="10"/>
     </row>
     <row r="237" spans="1:7" ht="27" customHeight="1">
       <c r="A237" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="B237" s="16" t="s">
+      <c r="B237" s="14" t="s">
         <v>481</v>
       </c>
-      <c r="C237" s="17">
+      <c r="C237" s="15">
         <v>255.26</v>
       </c>
-      <c r="D237" s="18"/>
+      <c r="D237" s="16"/>
       <c r="E237" s="10"/>
       <c r="F237" s="10"/>
       <c r="G237" s="10"/>
@@ -13934,13 +13934,13 @@
       <c r="A238" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B238" s="16" t="s">
+      <c r="B238" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="C238" s="17">
+      <c r="C238" s="15">
         <v>177.44</v>
       </c>
-      <c r="D238" s="18"/>
+      <c r="D238" s="16"/>
       <c r="E238" s="10"/>
       <c r="F238" s="10"/>
       <c r="G238" s="10"/>
@@ -13949,13 +13949,13 @@
       <c r="A239" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="B239" s="16" t="s">
+      <c r="B239" s="14" t="s">
         <v>485</v>
       </c>
-      <c r="C239" s="17">
+      <c r="C239" s="15">
         <v>109.2</v>
       </c>
-      <c r="D239" s="18"/>
+      <c r="D239" s="16"/>
       <c r="E239" s="10"/>
       <c r="F239" s="10"/>
       <c r="G239" s="10"/>
@@ -13964,13 +13964,13 @@
       <c r="A240" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B240" s="16" t="s">
+      <c r="B240" s="14" t="s">
         <v>487</v>
       </c>
-      <c r="C240" s="17">
+      <c r="C240" s="15">
         <v>109.2</v>
       </c>
-      <c r="D240" s="18"/>
+      <c r="D240" s="16"/>
       <c r="E240" s="10"/>
       <c r="F240" s="10"/>
       <c r="G240" s="10"/>
@@ -13979,13 +13979,13 @@
       <c r="A241" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="B241" s="16" t="s">
+      <c r="B241" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="C241" s="17">
+      <c r="C241" s="15">
         <v>109.2</v>
       </c>
-      <c r="D241" s="18"/>
+      <c r="D241" s="16"/>
       <c r="E241" s="10"/>
       <c r="F241" s="10"/>
       <c r="G241" s="10"/>
@@ -13994,13 +13994,13 @@
       <c r="A242" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="B242" s="16" t="s">
+      <c r="B242" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="C242" s="17">
+      <c r="C242" s="15">
         <v>109.2</v>
       </c>
-      <c r="D242" s="18"/>
+      <c r="D242" s="16"/>
       <c r="E242" s="10"/>
       <c r="F242" s="10"/>
       <c r="G242" s="10"/>
@@ -14009,13 +14009,13 @@
       <c r="A243" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="B243" s="16" t="s">
+      <c r="B243" s="14" t="s">
         <v>493</v>
       </c>
-      <c r="C243" s="17">
+      <c r="C243" s="15">
         <v>109.2</v>
       </c>
-      <c r="D243" s="18"/>
+      <c r="D243" s="16"/>
       <c r="E243" s="10"/>
       <c r="F243" s="10"/>
       <c r="G243" s="10"/>
@@ -14024,13 +14024,13 @@
       <c r="A244" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="B244" s="16" t="s">
+      <c r="B244" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="C244" s="17">
+      <c r="C244" s="15">
         <v>143.33000000000001</v>
       </c>
-      <c r="D244" s="18"/>
+      <c r="D244" s="16"/>
       <c r="E244" s="10"/>
       <c r="F244" s="10"/>
       <c r="G244" s="10"/>
@@ -14039,13 +14039,13 @@
       <c r="A245" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B245" s="16" t="s">
+      <c r="B245" s="14" t="s">
         <v>497</v>
       </c>
-      <c r="C245" s="17">
+      <c r="C245" s="15">
         <v>288.75</v>
       </c>
-      <c r="D245" s="18"/>
+      <c r="D245" s="16"/>
       <c r="E245" s="10"/>
       <c r="F245" s="10"/>
       <c r="G245" s="10"/>
@@ -14054,13 +14054,13 @@
       <c r="A246" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B246" s="16" t="s">
+      <c r="B246" s="14" t="s">
         <v>499</v>
       </c>
-      <c r="C246" s="17">
+      <c r="C246" s="15">
         <v>95.16</v>
       </c>
-      <c r="D246" s="18"/>
+      <c r="D246" s="16"/>
       <c r="E246" s="10"/>
       <c r="F246" s="10"/>
       <c r="G246" s="10"/>
@@ -14069,13 +14069,13 @@
       <c r="A247" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="B247" s="16" t="s">
+      <c r="B247" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="C247" s="17">
+      <c r="C247" s="15">
         <v>55.78</v>
       </c>
-      <c r="D247" s="18"/>
+      <c r="D247" s="16"/>
       <c r="E247" s="10"/>
       <c r="F247" s="10"/>
       <c r="G247" s="10"/>
@@ -14084,13 +14084,13 @@
       <c r="A248" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="B248" s="16" t="s">
+      <c r="B248" s="14" t="s">
         <v>503</v>
       </c>
-      <c r="C248" s="17">
+      <c r="C248" s="15">
         <v>111.93</v>
       </c>
-      <c r="D248" s="18"/>
+      <c r="D248" s="16"/>
       <c r="E248" s="10"/>
       <c r="F248" s="10"/>
       <c r="G248" s="10"/>
@@ -14099,13 +14099,13 @@
       <c r="A249" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B249" s="16" t="s">
+      <c r="B249" s="14" t="s">
         <v>505</v>
       </c>
-      <c r="C249" s="17">
+      <c r="C249" s="15">
         <v>226.35</v>
       </c>
-      <c r="D249" s="18"/>
+      <c r="D249" s="16"/>
       <c r="E249" s="10"/>
       <c r="F249" s="10"/>
       <c r="G249" s="10"/>
@@ -14114,13 +14114,13 @@
       <c r="A250" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="B250" s="16" t="s">
+      <c r="B250" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="C250" s="17">
+      <c r="C250" s="15">
         <v>226.35</v>
       </c>
-      <c r="D250" s="18"/>
+      <c r="D250" s="16"/>
       <c r="E250" s="10"/>
       <c r="F250" s="10"/>
       <c r="G250" s="10"/>
@@ -14129,13 +14129,13 @@
       <c r="A251" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="B251" s="20" t="s">
+      <c r="B251" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="C251" s="21">
+      <c r="C251" s="19">
         <v>39.380000000000003</v>
       </c>
-      <c r="D251" s="18"/>
+      <c r="D251" s="16"/>
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
       <c r="G251" s="10"/>
@@ -14150,7 +14150,7 @@
       <c r="C252" s="13">
         <v>226.35</v>
       </c>
-      <c r="D252" s="18"/>
+      <c r="D252" s="16"/>
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
       <c r="G252" s="10"/>
@@ -14159,13 +14159,13 @@
       <c r="A253" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B253" s="16" t="s">
+      <c r="B253" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="C253" s="17">
+      <c r="C253" s="15">
         <v>328.11</v>
       </c>
-      <c r="D253" s="18"/>
+      <c r="D253" s="16"/>
       <c r="E253" s="10"/>
       <c r="F253" s="10"/>
       <c r="G253" s="10"/>
@@ -14174,13 +14174,13 @@
       <c r="A254" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="B254" s="16" t="s">
+      <c r="B254" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="C254" s="17">
+      <c r="C254" s="15">
         <v>887.25</v>
       </c>
-      <c r="D254" s="18"/>
+      <c r="D254" s="16"/>
       <c r="E254" s="10"/>
       <c r="F254" s="10"/>
       <c r="G254" s="10"/>
@@ -14189,13 +14189,13 @@
       <c r="A255" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B255" s="16" t="s">
+      <c r="B255" s="14" t="s">
         <v>517</v>
       </c>
-      <c r="C255" s="17">
+      <c r="C255" s="15">
         <v>3276</v>
       </c>
-      <c r="D255" s="18"/>
+      <c r="D255" s="16"/>
       <c r="E255" s="10"/>
       <c r="F255" s="10"/>
       <c r="G255" s="10"/>
@@ -14204,13 +14204,13 @@
       <c r="A256" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="B256" s="16" t="s">
+      <c r="B256" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="C256" s="17">
+      <c r="C256" s="15">
         <v>3276</v>
       </c>
-      <c r="D256" s="18"/>
+      <c r="D256" s="16"/>
       <c r="E256" s="10"/>
       <c r="F256" s="10"/>
       <c r="G256" s="10"/>
@@ -14219,13 +14219,13 @@
       <c r="A257" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="B257" s="16" t="s">
+      <c r="B257" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="C257" s="17">
+      <c r="C257" s="15">
         <v>1365</v>
       </c>
-      <c r="D257" s="18"/>
+      <c r="D257" s="16"/>
       <c r="E257" s="10"/>
       <c r="F257" s="10"/>
       <c r="G257" s="10"/>
@@ -14234,13 +14234,13 @@
       <c r="A258" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="B258" s="16" t="s">
+      <c r="B258" s="14" t="s">
         <v>522</v>
       </c>
-      <c r="C258" s="17">
+      <c r="C258" s="15">
         <v>163.80000000000001</v>
       </c>
-      <c r="D258" s="18"/>
+      <c r="D258" s="16"/>
       <c r="E258" s="10"/>
       <c r="F258" s="10"/>
       <c r="G258" s="10"/>
@@ -14249,13 +14249,13 @@
       <c r="A259" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="B259" s="16" t="s">
+      <c r="B259" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="C259" s="17">
+      <c r="C259" s="15">
         <v>122.85</v>
       </c>
-      <c r="D259" s="18"/>
+      <c r="D259" s="16"/>
       <c r="E259" s="10"/>
       <c r="F259" s="10"/>
       <c r="G259" s="10"/>
@@ -14264,13 +14264,13 @@
       <c r="A260" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="B260" s="16" t="s">
+      <c r="B260" s="14" t="s">
         <v>526</v>
       </c>
-      <c r="C260" s="17">
+      <c r="C260" s="15">
         <v>122.85</v>
       </c>
-      <c r="D260" s="18"/>
+      <c r="D260" s="16"/>
       <c r="E260" s="10"/>
       <c r="F260" s="10"/>
       <c r="G260" s="10"/>
@@ -14279,13 +14279,13 @@
       <c r="A261" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="B261" s="16" t="s">
+      <c r="B261" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="C261" s="17">
+      <c r="C261" s="15">
         <v>54.6</v>
       </c>
-      <c r="D261" s="18"/>
+      <c r="D261" s="16"/>
       <c r="E261" s="10"/>
       <c r="F261" s="10"/>
       <c r="G261" s="10"/>
@@ -14294,13 +14294,13 @@
       <c r="A262" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="B262" s="16" t="s">
+      <c r="B262" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="C262" s="17">
+      <c r="C262" s="15">
         <v>54.6</v>
       </c>
-      <c r="D262" s="18"/>
+      <c r="D262" s="16"/>
       <c r="E262" s="10"/>
       <c r="F262" s="10"/>
       <c r="G262" s="10"/>
@@ -14309,16 +14309,16 @@
       <c r="A263" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="B263" s="16" t="s">
+      <c r="B263" s="14" t="s">
         <v>532</v>
       </c>
-      <c r="C263" s="17">
+      <c r="C263" s="15">
         <v>43.74</v>
       </c>
-      <c r="D263" s="31" t="s">
+      <c r="D263" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="E263" s="30"/>
+      <c r="E263" s="28"/>
       <c r="F263" s="10"/>
       <c r="G263" s="10"/>
     </row>
@@ -14326,13 +14326,13 @@
       <c r="A264" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="B264" s="16" t="s">
+      <c r="B264" s="14" t="s">
         <v>535</v>
       </c>
-      <c r="C264" s="17">
+      <c r="C264" s="15">
         <v>43.74</v>
       </c>
-      <c r="D264" s="18"/>
+      <c r="D264" s="16"/>
       <c r="E264" s="10"/>
       <c r="F264" s="10"/>
       <c r="G264" s="10"/>
@@ -14341,13 +14341,13 @@
       <c r="A265" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="B265" s="16" t="s">
+      <c r="B265" s="14" t="s">
         <v>537</v>
       </c>
-      <c r="C265" s="17">
+      <c r="C265" s="15">
         <v>43.74</v>
       </c>
-      <c r="D265" s="18"/>
+      <c r="D265" s="16"/>
       <c r="E265" s="10"/>
       <c r="F265" s="10"/>
       <c r="G265" s="10"/>
@@ -14356,13 +14356,13 @@
       <c r="A266" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B266" s="16" t="s">
+      <c r="B266" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="C266" s="17">
+      <c r="C266" s="15">
         <v>443.63</v>
       </c>
-      <c r="D266" s="18"/>
+      <c r="D266" s="16"/>
       <c r="E266" s="10"/>
       <c r="F266" s="10"/>
       <c r="G266" s="10"/>
@@ -14371,13 +14371,13 @@
       <c r="A267" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="B267" s="16" t="s">
+      <c r="B267" s="14" t="s">
         <v>541</v>
       </c>
-      <c r="C267" s="17">
+      <c r="C267" s="15">
         <v>6.14</v>
       </c>
-      <c r="D267" s="18"/>
+      <c r="D267" s="16"/>
       <c r="E267" s="10"/>
       <c r="F267" s="10"/>
       <c r="G267" s="10"/>
@@ -14386,13 +14386,13 @@
       <c r="A268" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="B268" s="16" t="s">
+      <c r="B268" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="C268" s="17">
+      <c r="C268" s="15">
         <v>58.01</v>
       </c>
-      <c r="D268" s="18"/>
+      <c r="D268" s="16"/>
       <c r="E268" s="10"/>
       <c r="F268" s="10"/>
       <c r="G268" s="10"/>
@@ -14401,13 +14401,13 @@
       <c r="A269" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="B269" s="16" t="s">
+      <c r="B269" s="14" t="s">
         <v>545</v>
       </c>
-      <c r="C269" s="17">
+      <c r="C269" s="15">
         <v>887.24</v>
       </c>
-      <c r="D269" s="18"/>
+      <c r="D269" s="16"/>
       <c r="E269" s="10"/>
       <c r="F269" s="10"/>
       <c r="G269" s="10"/>
@@ -14416,13 +14416,13 @@
       <c r="A270" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="B270" s="16" t="s">
+      <c r="B270" s="14" t="s">
         <v>539</v>
       </c>
-      <c r="C270" s="17">
+      <c r="C270" s="15">
         <v>443.63</v>
       </c>
-      <c r="D270" s="18"/>
+      <c r="D270" s="16"/>
       <c r="E270" s="10"/>
       <c r="F270" s="10"/>
       <c r="G270" s="10"/>
@@ -14431,13 +14431,13 @@
       <c r="A271" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="B271" s="16" t="s">
+      <c r="B271" s="14" t="s">
         <v>547</v>
       </c>
-      <c r="C271" s="17">
+      <c r="C271" s="15">
         <v>668.85</v>
       </c>
-      <c r="D271" s="18"/>
+      <c r="D271" s="16"/>
       <c r="E271" s="10"/>
       <c r="F271" s="10"/>
       <c r="G271" s="10"/>
@@ -14446,13 +14446,13 @@
       <c r="A272" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="B272" s="16" t="s">
+      <c r="B272" s="14" t="s">
         <v>549</v>
       </c>
-      <c r="C272" s="17">
+      <c r="C272" s="15">
         <v>54.6</v>
       </c>
-      <c r="D272" s="18"/>
+      <c r="D272" s="16"/>
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
       <c r="G272" s="10"/>
@@ -14461,13 +14461,13 @@
       <c r="A273" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="B273" s="16" t="s">
+      <c r="B273" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="C273" s="17">
+      <c r="C273" s="15">
         <v>31.4</v>
       </c>
-      <c r="D273" s="18"/>
+      <c r="D273" s="16"/>
       <c r="E273" s="10"/>
       <c r="F273" s="10"/>
       <c r="G273" s="10"/>
@@ -14476,13 +14476,13 @@
       <c r="A274" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="B274" s="16" t="s">
+      <c r="B274" s="14" t="s">
         <v>553</v>
       </c>
-      <c r="C274" s="17">
+      <c r="C274" s="15">
         <v>15.02</v>
       </c>
-      <c r="D274" s="18"/>
+      <c r="D274" s="16"/>
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
       <c r="G274" s="10"/>
@@ -14491,13 +14491,13 @@
       <c r="A275" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B275" s="16" t="s">
+      <c r="B275" s="14" t="s">
         <v>555</v>
       </c>
-      <c r="C275" s="17">
+      <c r="C275" s="15">
         <v>54.6</v>
       </c>
-      <c r="D275" s="18"/>
+      <c r="D275" s="16"/>
       <c r="E275" s="10"/>
       <c r="F275" s="10"/>
       <c r="G275" s="10"/>
@@ -14506,13 +14506,13 @@
       <c r="A276" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="B276" s="16" t="s">
+      <c r="B276" s="14" t="s">
         <v>557</v>
       </c>
-      <c r="C276" s="17">
+      <c r="C276" s="15">
         <v>30.03</v>
       </c>
-      <c r="D276" s="18"/>
+      <c r="D276" s="16"/>
       <c r="E276" s="10"/>
       <c r="F276" s="10"/>
       <c r="G276" s="10"/>
@@ -14521,13 +14521,13 @@
       <c r="A277" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="B277" s="16" t="s">
+      <c r="B277" s="14" t="s">
         <v>559</v>
       </c>
-      <c r="C277" s="17">
+      <c r="C277" s="15">
         <v>30.03</v>
       </c>
-      <c r="D277" s="18"/>
+      <c r="D277" s="16"/>
       <c r="E277" s="10"/>
       <c r="F277" s="10"/>
       <c r="G277" s="10"/>
@@ -14536,13 +14536,13 @@
       <c r="A278" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="B278" s="16" t="s">
+      <c r="B278" s="14" t="s">
         <v>561</v>
       </c>
-      <c r="C278" s="17">
+      <c r="C278" s="15">
         <v>38.22</v>
       </c>
-      <c r="D278" s="18"/>
+      <c r="D278" s="16"/>
       <c r="E278" s="10"/>
       <c r="F278" s="10"/>
       <c r="G278" s="10"/>
@@ -14551,13 +14551,13 @@
       <c r="A279" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="B279" s="16" t="s">
+      <c r="B279" s="14" t="s">
         <v>563</v>
       </c>
-      <c r="C279" s="17">
+      <c r="C279" s="15">
         <v>5.25</v>
       </c>
-      <c r="D279" s="18"/>
+      <c r="D279" s="16"/>
       <c r="E279" s="10"/>
       <c r="F279" s="10"/>
       <c r="G279" s="10"/>
@@ -14566,13 +14566,13 @@
       <c r="A280" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B280" s="16" t="s">
+      <c r="B280" s="14" t="s">
         <v>565</v>
       </c>
-      <c r="C280" s="17">
+      <c r="C280" s="15">
         <v>17.05</v>
       </c>
-      <c r="D280" s="18"/>
+      <c r="D280" s="16"/>
       <c r="E280" s="10"/>
       <c r="F280" s="10"/>
       <c r="G280" s="10"/>
@@ -14581,13 +14581,13 @@
       <c r="A281" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="B281" s="16" t="s">
+      <c r="B281" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="C281" s="17">
+      <c r="C281" s="15">
         <v>600.6</v>
       </c>
-      <c r="D281" s="18"/>
+      <c r="D281" s="16"/>
       <c r="E281" s="10"/>
       <c r="F281" s="10"/>
       <c r="G281" s="10"/>
@@ -14596,13 +14596,13 @@
       <c r="A282" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="B282" s="16" t="s">
+      <c r="B282" s="14" t="s">
         <v>569</v>
       </c>
-      <c r="C282" s="17">
+      <c r="C282" s="15">
         <v>47.78</v>
       </c>
-      <c r="D282" s="18"/>
+      <c r="D282" s="16"/>
       <c r="E282" s="10"/>
       <c r="F282" s="10"/>
       <c r="G282" s="10"/>
@@ -14611,13 +14611,13 @@
       <c r="A283" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="B283" s="16" t="s">
+      <c r="B283" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="C283" s="17">
+      <c r="C283" s="15">
         <v>31.4</v>
       </c>
-      <c r="D283" s="18"/>
+      <c r="D283" s="16"/>
       <c r="E283" s="10"/>
       <c r="F283" s="10"/>
       <c r="G283" s="10"/>
@@ -14626,13 +14626,13 @@
       <c r="A284" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="B284" s="16" t="s">
+      <c r="B284" s="14" t="s">
         <v>573</v>
       </c>
-      <c r="C284" s="17">
+      <c r="C284" s="15">
         <v>109.2</v>
       </c>
-      <c r="D284" s="19" t="s">
+      <c r="D284" s="17" t="s">
         <v>574</v>
       </c>
       <c r="E284" s="10"/>
@@ -14643,13 +14643,13 @@
       <c r="A285" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="B285" s="16" t="s">
+      <c r="B285" s="14" t="s">
         <v>576</v>
       </c>
-      <c r="C285" s="17">
+      <c r="C285" s="15">
         <v>133.77000000000001</v>
       </c>
-      <c r="D285" s="18"/>
+      <c r="D285" s="16"/>
       <c r="E285" s="10"/>
       <c r="F285" s="10"/>
       <c r="G285" s="10"/>
@@ -14658,13 +14658,13 @@
       <c r="A286" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="B286" s="16" t="s">
+      <c r="B286" s="14" t="s">
         <v>578</v>
       </c>
-      <c r="C286" s="17">
+      <c r="C286" s="15">
         <v>81.900000000000006</v>
       </c>
-      <c r="D286" s="18"/>
+      <c r="D286" s="16"/>
       <c r="E286" s="10"/>
       <c r="F286" s="10"/>
       <c r="G286" s="10"/>
@@ -14673,13 +14673,13 @@
       <c r="A287" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="B287" s="16" t="s">
+      <c r="B287" s="14" t="s">
         <v>580</v>
       </c>
-      <c r="C287" s="17">
+      <c r="C287" s="15">
         <v>135.13999999999999</v>
       </c>
-      <c r="D287" s="18"/>
+      <c r="D287" s="16"/>
       <c r="E287" s="10"/>
       <c r="F287" s="10"/>
       <c r="G287" s="10"/>
@@ -14688,13 +14688,13 @@
       <c r="A288" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="B288" s="16" t="s">
+      <c r="B288" s="14" t="s">
         <v>582</v>
       </c>
-      <c r="C288" s="17">
+      <c r="C288" s="15">
         <v>81.900000000000006</v>
       </c>
-      <c r="D288" s="18"/>
+      <c r="D288" s="16"/>
       <c r="E288" s="10"/>
       <c r="F288" s="10"/>
       <c r="G288" s="10"/>
@@ -14703,13 +14703,13 @@
       <c r="A289" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="B289" s="16" t="s">
+      <c r="B289" s="14" t="s">
         <v>584</v>
       </c>
-      <c r="C289" s="17">
+      <c r="C289" s="15">
         <v>67.599999999999994</v>
       </c>
-      <c r="D289" s="18"/>
+      <c r="D289" s="16"/>
       <c r="E289" s="10"/>
       <c r="F289" s="10"/>
       <c r="G289" s="10"/>
@@ -14718,13 +14718,13 @@
       <c r="A290" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="B290" s="16" t="s">
+      <c r="B290" s="14" t="s">
         <v>586</v>
       </c>
-      <c r="C290" s="17">
+      <c r="C290" s="15">
         <v>98.39</v>
       </c>
-      <c r="D290" s="18"/>
+      <c r="D290" s="16"/>
       <c r="E290" s="10"/>
       <c r="F290" s="10"/>
       <c r="G290" s="10"/>
@@ -14733,13 +14733,13 @@
       <c r="A291" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="B291" s="16" t="s">
+      <c r="B291" s="14" t="s">
         <v>588</v>
       </c>
-      <c r="C291" s="17">
+      <c r="C291" s="15">
         <v>68.25</v>
       </c>
-      <c r="D291" s="18"/>
+      <c r="D291" s="16"/>
       <c r="E291" s="10"/>
       <c r="F291" s="10"/>
       <c r="G291" s="10"/>
@@ -14748,13 +14748,13 @@
       <c r="A292" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="B292" s="16" t="s">
+      <c r="B292" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="C292" s="17">
+      <c r="C292" s="15">
         <v>81.900000000000006</v>
       </c>
-      <c r="D292" s="18"/>
+      <c r="D292" s="16"/>
       <c r="E292" s="10"/>
       <c r="F292" s="10"/>
       <c r="G292" s="10"/>
@@ -14763,13 +14763,13 @@
       <c r="A293" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="B293" s="16" t="s">
+      <c r="B293" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="C293" s="17">
+      <c r="C293" s="15">
         <v>95.55</v>
       </c>
-      <c r="D293" s="18"/>
+      <c r="D293" s="16"/>
       <c r="E293" s="10"/>
       <c r="F293" s="10"/>
       <c r="G293" s="10"/>
@@ -14778,13 +14778,13 @@
       <c r="A294" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="B294" s="16" t="s">
+      <c r="B294" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="C294" s="17">
+      <c r="C294" s="15">
         <v>81.900000000000006</v>
       </c>
-      <c r="D294" s="18"/>
+      <c r="D294" s="16"/>
       <c r="E294" s="10"/>
       <c r="F294" s="10"/>
       <c r="G294" s="10"/>
@@ -14793,13 +14793,13 @@
       <c r="A295" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="B295" s="16" t="s">
+      <c r="B295" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="C295" s="17">
+      <c r="C295" s="15">
         <v>88.73</v>
       </c>
-      <c r="D295" s="18"/>
+      <c r="D295" s="16"/>
       <c r="E295" s="10"/>
       <c r="F295" s="10"/>
       <c r="G295" s="10"/>
@@ -14808,13 +14808,13 @@
       <c r="A296" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="B296" s="16" t="s">
+      <c r="B296" s="14" t="s">
         <v>598</v>
       </c>
-      <c r="C296" s="17">
+      <c r="C296" s="15">
         <v>81.900000000000006</v>
       </c>
-      <c r="D296" s="18"/>
+      <c r="D296" s="16"/>
       <c r="E296" s="10"/>
       <c r="F296" s="10"/>
       <c r="G296" s="10"/>
@@ -14823,13 +14823,13 @@
       <c r="A297" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="B297" s="16" t="s">
+      <c r="B297" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="C297" s="17">
+      <c r="C297" s="15">
         <v>95.55</v>
       </c>
-      <c r="D297" s="18"/>
+      <c r="D297" s="16"/>
       <c r="E297" s="10"/>
       <c r="F297" s="10"/>
       <c r="G297" s="10"/>
@@ -14838,13 +14838,13 @@
       <c r="A298" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="B298" s="16" t="s">
+      <c r="B298" s="14" t="s">
         <v>602</v>
       </c>
-      <c r="C298" s="17">
+      <c r="C298" s="15">
         <v>102.38</v>
       </c>
-      <c r="D298" s="18"/>
+      <c r="D298" s="16"/>
       <c r="E298" s="10"/>
       <c r="F298" s="10"/>
       <c r="G298" s="10"/>
@@ -14853,13 +14853,13 @@
       <c r="A299" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="B299" s="16" t="s">
+      <c r="B299" s="14" t="s">
         <v>604</v>
       </c>
-      <c r="C299" s="17">
+      <c r="C299" s="15">
         <v>109.2</v>
       </c>
-      <c r="D299" s="18"/>
+      <c r="D299" s="16"/>
       <c r="E299" s="10"/>
       <c r="F299" s="10"/>
       <c r="G299" s="10"/>
@@ -14868,13 +14868,13 @@
       <c r="A300" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="B300" s="16" t="s">
+      <c r="B300" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="C300" s="17">
+      <c r="C300" s="15">
         <v>187.49</v>
       </c>
-      <c r="D300" s="18"/>
+      <c r="D300" s="16"/>
       <c r="E300" s="10"/>
       <c r="F300" s="10"/>
       <c r="G300" s="10"/>
@@ -14883,13 +14883,13 @@
       <c r="A301" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="B301" s="16" t="s">
+      <c r="B301" s="14" t="s">
         <v>608</v>
       </c>
-      <c r="C301" s="17">
+      <c r="C301" s="15">
         <v>187.49</v>
       </c>
-      <c r="D301" s="18"/>
+      <c r="D301" s="16"/>
       <c r="E301" s="10"/>
       <c r="F301" s="10"/>
       <c r="G301" s="10"/>
@@ -14898,13 +14898,13 @@
       <c r="A302" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="B302" s="16" t="s">
+      <c r="B302" s="14" t="s">
         <v>610</v>
       </c>
-      <c r="C302" s="17">
+      <c r="C302" s="15">
         <v>187.49</v>
       </c>
-      <c r="D302" s="18"/>
+      <c r="D302" s="16"/>
       <c r="E302" s="10"/>
       <c r="F302" s="10"/>
       <c r="G302" s="10"/>
@@ -14913,13 +14913,13 @@
       <c r="A303" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="B303" s="16" t="s">
+      <c r="B303" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="C303" s="17">
+      <c r="C303" s="15">
         <v>187.49</v>
       </c>
-      <c r="D303" s="18"/>
+      <c r="D303" s="16"/>
       <c r="E303" s="10"/>
       <c r="F303" s="10"/>
       <c r="G303" s="10"/>
@@ -14928,13 +14928,13 @@
       <c r="A304" s="3" t="s">
         <v>613</v>
       </c>
-      <c r="B304" s="16" t="s">
+      <c r="B304" s="14" t="s">
         <v>614</v>
       </c>
-      <c r="C304" s="17">
+      <c r="C304" s="15">
         <v>187.49</v>
       </c>
-      <c r="D304" s="18"/>
+      <c r="D304" s="16"/>
       <c r="E304" s="10"/>
       <c r="F304" s="10"/>
       <c r="G304" s="10"/>
@@ -14943,13 +14943,13 @@
       <c r="A305" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="B305" s="16" t="s">
+      <c r="B305" s="14" t="s">
         <v>616</v>
       </c>
-      <c r="C305" s="17">
+      <c r="C305" s="15">
         <v>187.49</v>
       </c>
-      <c r="D305" s="18"/>
+      <c r="D305" s="16"/>
       <c r="E305" s="10"/>
       <c r="F305" s="10"/>
       <c r="G305" s="10"/>
@@ -14958,13 +14958,13 @@
       <c r="A306" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="B306" s="16" t="s">
+      <c r="B306" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="C306" s="17">
+      <c r="C306" s="15">
         <v>136.49</v>
       </c>
-      <c r="D306" s="18"/>
+      <c r="D306" s="16"/>
       <c r="E306" s="10"/>
       <c r="F306" s="10"/>
       <c r="G306" s="10"/>
@@ -14973,13 +14973,13 @@
       <c r="A307" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="B307" s="16" t="s">
+      <c r="B307" s="14" t="s">
         <v>620</v>
       </c>
-      <c r="C307" s="17">
+      <c r="C307" s="15">
         <v>28.67</v>
       </c>
-      <c r="D307" s="18"/>
+      <c r="D307" s="16"/>
       <c r="E307" s="10"/>
       <c r="F307" s="10"/>
       <c r="G307" s="10"/>
@@ -14988,13 +14988,13 @@
       <c r="A308" s="3" t="s">
         <v>621</v>
       </c>
-      <c r="B308" s="16" t="s">
+      <c r="B308" s="14" t="s">
         <v>622</v>
       </c>
-      <c r="C308" s="17">
+      <c r="C308" s="15">
         <v>80.540000000000006</v>
       </c>
-      <c r="D308" s="18"/>
+      <c r="D308" s="16"/>
       <c r="E308" s="10"/>
       <c r="F308" s="10"/>
       <c r="G308" s="10"/>
@@ -15003,13 +15003,13 @@
       <c r="A309" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="B309" s="16" t="s">
+      <c r="B309" s="14" t="s">
         <v>624</v>
       </c>
-      <c r="C309" s="17">
+      <c r="C309" s="15">
         <v>273</v>
       </c>
-      <c r="D309" s="18"/>
+      <c r="D309" s="16"/>
       <c r="E309" s="10"/>
       <c r="F309" s="10"/>
       <c r="G309" s="10"/>
@@ -15018,13 +15018,13 @@
       <c r="A310" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="B310" s="16" t="s">
+      <c r="B310" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="C310" s="17">
+      <c r="C310" s="15">
         <v>204.75</v>
       </c>
-      <c r="D310" s="18"/>
+      <c r="D310" s="16"/>
       <c r="E310" s="10"/>
       <c r="F310" s="10"/>
       <c r="G310" s="10"/>
@@ -15033,13 +15033,13 @@
       <c r="A311" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="B311" s="16" t="s">
+      <c r="B311" s="14" t="s">
         <v>628</v>
       </c>
-      <c r="C311" s="17">
+      <c r="C311" s="15">
         <v>177.45</v>
       </c>
-      <c r="D311" s="18"/>
+      <c r="D311" s="16"/>
       <c r="E311" s="10"/>
       <c r="F311" s="10"/>
       <c r="G311" s="10"/>
@@ -15048,13 +15048,13 @@
       <c r="A312" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="B312" s="16" t="s">
+      <c r="B312" s="14" t="s">
         <v>630</v>
       </c>
-      <c r="C312" s="17">
+      <c r="C312" s="15">
         <v>286.64999999999998</v>
       </c>
-      <c r="D312" s="18"/>
+      <c r="D312" s="16"/>
       <c r="E312" s="10"/>
       <c r="F312" s="10"/>
       <c r="G312" s="10"/>
@@ -15063,13 +15063,13 @@
       <c r="A313" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="B313" s="16" t="s">
+      <c r="B313" s="14" t="s">
         <v>632</v>
       </c>
-      <c r="C313" s="17">
+      <c r="C313" s="15">
         <v>57.33</v>
       </c>
-      <c r="D313" s="18"/>
+      <c r="D313" s="16"/>
       <c r="E313" s="10"/>
       <c r="F313" s="10"/>
       <c r="G313" s="10"/>
@@ -15078,13 +15078,13 @@
       <c r="A314" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="B314" s="20" t="s">
+      <c r="B314" s="18" t="s">
         <v>634</v>
       </c>
-      <c r="C314" s="21">
+      <c r="C314" s="19">
         <v>455.91</v>
       </c>
-      <c r="D314" s="18"/>
+      <c r="D314" s="16"/>
       <c r="E314" s="10"/>
       <c r="F314" s="10"/>
       <c r="G314" s="10"/>
@@ -15099,7 +15099,7 @@
       <c r="C315" s="13">
         <v>455.91</v>
       </c>
-      <c r="D315" s="18"/>
+      <c r="D315" s="16"/>
       <c r="E315" s="10"/>
       <c r="F315" s="10"/>
       <c r="G315" s="10"/>
@@ -15108,13 +15108,13 @@
       <c r="A316" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="B316" s="16" t="s">
+      <c r="B316" s="14" t="s">
         <v>638</v>
       </c>
-      <c r="C316" s="17">
+      <c r="C316" s="15">
         <v>443.63</v>
       </c>
-      <c r="D316" s="18"/>
+      <c r="D316" s="16"/>
       <c r="E316" s="10"/>
       <c r="F316" s="10"/>
       <c r="G316" s="10"/>
@@ -15123,13 +15123,13 @@
       <c r="A317" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="B317" s="16" t="s">
+      <c r="B317" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="C317" s="17">
+      <c r="C317" s="15">
         <v>455.91</v>
       </c>
-      <c r="D317" s="18"/>
+      <c r="D317" s="16"/>
       <c r="E317" s="10"/>
       <c r="F317" s="10"/>
       <c r="G317" s="10"/>
@@ -15138,13 +15138,13 @@
       <c r="A318" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="B318" s="16" t="s">
+      <c r="B318" s="14" t="s">
         <v>642</v>
       </c>
-      <c r="C318" s="17">
+      <c r="C318" s="15">
         <v>23.21</v>
       </c>
-      <c r="D318" s="18"/>
+      <c r="D318" s="16"/>
       <c r="E318" s="10"/>
       <c r="F318" s="10"/>
       <c r="G318" s="10"/>
@@ -15153,13 +15153,13 @@
       <c r="A319" s="3" t="s">
         <v>643</v>
       </c>
-      <c r="B319" s="16" t="s">
+      <c r="B319" s="14" t="s">
         <v>644</v>
       </c>
-      <c r="C319" s="17">
+      <c r="C319" s="15">
         <v>10.24</v>
       </c>
-      <c r="D319" s="19" t="s">
+      <c r="D319" s="17" t="s">
         <v>645</v>
       </c>
       <c r="E319" s="10"/>
@@ -15170,13 +15170,13 @@
       <c r="A320" s="3" t="s">
         <v>646</v>
       </c>
-      <c r="B320" s="16" t="s">
+      <c r="B320" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="C320" s="17">
+      <c r="C320" s="15">
         <v>10.24</v>
       </c>
-      <c r="D320" s="18"/>
+      <c r="D320" s="16"/>
       <c r="E320" s="10"/>
       <c r="F320" s="10"/>
       <c r="G320" s="10"/>
@@ -15185,13 +15185,13 @@
       <c r="A321" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="B321" s="16" t="s">
+      <c r="B321" s="14" t="s">
         <v>649</v>
       </c>
-      <c r="C321" s="17">
+      <c r="C321" s="15">
         <v>10.24</v>
       </c>
-      <c r="D321" s="18"/>
+      <c r="D321" s="16"/>
       <c r="E321" s="10"/>
       <c r="F321" s="10"/>
       <c r="G321" s="10"/>
@@ -15200,13 +15200,13 @@
       <c r="A322" s="3" t="s">
         <v>650</v>
       </c>
-      <c r="B322" s="16" t="s">
+      <c r="B322" s="14" t="s">
         <v>651</v>
       </c>
-      <c r="C322" s="17">
+      <c r="C322" s="15">
         <v>10.24</v>
       </c>
-      <c r="D322" s="18"/>
+      <c r="D322" s="16"/>
       <c r="E322" s="10"/>
       <c r="F322" s="10"/>
       <c r="G322" s="10"/>
@@ -15215,13 +15215,13 @@
       <c r="A323" s="3" t="s">
         <v>652</v>
       </c>
-      <c r="B323" s="16" t="s">
+      <c r="B323" s="14" t="s">
         <v>653</v>
       </c>
-      <c r="C323" s="17">
+      <c r="C323" s="15">
         <v>10.24</v>
       </c>
-      <c r="D323" s="18"/>
+      <c r="D323" s="16"/>
       <c r="E323" s="10"/>
       <c r="F323" s="10"/>
       <c r="G323" s="10"/>
@@ -15230,13 +15230,13 @@
       <c r="A324" s="3" t="s">
         <v>654</v>
       </c>
-      <c r="B324" s="16" t="s">
+      <c r="B324" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="C324" s="17">
+      <c r="C324" s="15">
         <v>47.78</v>
       </c>
-      <c r="D324" s="18"/>
+      <c r="D324" s="16"/>
       <c r="E324" s="10"/>
       <c r="F324" s="10"/>
       <c r="G324" s="10"/>
@@ -15245,13 +15245,13 @@
       <c r="A325" s="3" t="s">
         <v>656</v>
       </c>
-      <c r="B325" s="16" t="s">
+      <c r="B325" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="C325" s="17">
+      <c r="C325" s="15">
         <v>47.78</v>
       </c>
-      <c r="D325" s="18"/>
+      <c r="D325" s="16"/>
       <c r="E325" s="10"/>
       <c r="F325" s="10"/>
       <c r="G325" s="10"/>
@@ -15260,13 +15260,13 @@
       <c r="A326" s="3" t="s">
         <v>658</v>
       </c>
-      <c r="B326" s="16" t="s">
+      <c r="B326" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="C326" s="17">
+      <c r="C326" s="15">
         <v>50.51</v>
       </c>
-      <c r="D326" s="18"/>
+      <c r="D326" s="16"/>
       <c r="E326" s="10"/>
       <c r="F326" s="10"/>
       <c r="G326" s="10"/>
@@ -15275,13 +15275,13 @@
       <c r="A327" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="B327" s="16" t="s">
+      <c r="B327" s="14" t="s">
         <v>661</v>
       </c>
-      <c r="C327" s="17">
+      <c r="C327" s="15">
         <v>50.51</v>
       </c>
-      <c r="D327" s="18"/>
+      <c r="D327" s="16"/>
       <c r="E327" s="10"/>
       <c r="F327" s="10"/>
       <c r="G327" s="10"/>
@@ -15290,13 +15290,13 @@
       <c r="A328" s="3" t="s">
         <v>662</v>
       </c>
-      <c r="B328" s="16" t="s">
+      <c r="B328" s="14" t="s">
         <v>663</v>
       </c>
-      <c r="C328" s="17">
+      <c r="C328" s="15">
         <v>113.73</v>
       </c>
-      <c r="D328" s="19" t="s">
+      <c r="D328" s="17" t="s">
         <v>664</v>
       </c>
       <c r="E328" s="10"/>
@@ -15307,13 +15307,13 @@
       <c r="A329" s="3" t="s">
         <v>665</v>
       </c>
-      <c r="B329" s="16" t="s">
+      <c r="B329" s="14" t="s">
         <v>666</v>
       </c>
-      <c r="C329" s="17">
+      <c r="C329" s="15">
         <v>341.24</v>
       </c>
-      <c r="D329" s="18"/>
+      <c r="D329" s="16"/>
       <c r="E329" s="10"/>
       <c r="F329" s="10"/>
       <c r="G329" s="10"/>
@@ -15322,13 +15322,13 @@
       <c r="A330" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="B330" s="16" t="s">
+      <c r="B330" s="14" t="s">
         <v>668</v>
       </c>
-      <c r="C330" s="17">
+      <c r="C330" s="15">
         <v>292.11</v>
       </c>
-      <c r="D330" s="18"/>
+      <c r="D330" s="16"/>
       <c r="E330" s="10"/>
       <c r="F330" s="10"/>
       <c r="G330" s="10"/>
@@ -15337,13 +15337,13 @@
       <c r="A331" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="B331" s="16" t="s">
+      <c r="B331" s="14" t="s">
         <v>670</v>
       </c>
-      <c r="C331" s="17">
+      <c r="C331" s="15">
         <v>104.99</v>
       </c>
-      <c r="D331" s="18"/>
+      <c r="D331" s="16"/>
       <c r="E331" s="10"/>
       <c r="F331" s="10"/>
       <c r="G331" s="10"/>
@@ -15352,13 +15352,13 @@
       <c r="A332" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="B332" s="16" t="s">
+      <c r="B332" s="14" t="s">
         <v>672</v>
       </c>
-      <c r="C332" s="17">
+      <c r="C332" s="15">
         <v>104.99</v>
       </c>
-      <c r="D332" s="18"/>
+      <c r="D332" s="16"/>
       <c r="E332" s="10"/>
       <c r="F332" s="10"/>
       <c r="G332" s="10"/>
@@ -15367,13 +15367,13 @@
       <c r="A333" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="B333" s="16" t="s">
+      <c r="B333" s="14" t="s">
         <v>674</v>
       </c>
-      <c r="C333" s="17">
+      <c r="C333" s="15">
         <v>292.11</v>
       </c>
-      <c r="D333" s="18"/>
+      <c r="D333" s="16"/>
       <c r="E333" s="10"/>
       <c r="F333" s="10"/>
       <c r="G333" s="10"/>
@@ -15382,13 +15382,13 @@
       <c r="A334" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="B334" s="16" t="s">
+      <c r="B334" s="14" t="s">
         <v>676</v>
       </c>
-      <c r="C334" s="17">
+      <c r="C334" s="15">
         <v>292.11</v>
       </c>
-      <c r="D334" s="18"/>
+      <c r="D334" s="16"/>
       <c r="E334" s="10"/>
       <c r="F334" s="10"/>
       <c r="G334" s="10"/>
@@ -15397,13 +15397,13 @@
       <c r="A335" s="3" t="s">
         <v>677</v>
       </c>
-      <c r="B335" s="16" t="s">
+      <c r="B335" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="C335" s="17">
+      <c r="C335" s="15">
         <v>217.04</v>
       </c>
-      <c r="D335" s="18"/>
+      <c r="D335" s="16"/>
       <c r="E335" s="10"/>
       <c r="F335" s="10"/>
       <c r="G335" s="10"/>
@@ -15412,13 +15412,13 @@
       <c r="A336" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="B336" s="16" t="s">
+      <c r="B336" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="C336" s="17">
+      <c r="C336" s="15">
         <v>217.04</v>
       </c>
-      <c r="D336" s="18"/>
+      <c r="D336" s="16"/>
       <c r="E336" s="10"/>
       <c r="F336" s="10"/>
       <c r="G336" s="10"/>
@@ -15427,13 +15427,13 @@
       <c r="A337" s="3" t="s">
         <v>680</v>
       </c>
-      <c r="B337" s="16" t="s">
+      <c r="B337" s="14" t="s">
         <v>681</v>
       </c>
-      <c r="C337" s="17">
+      <c r="C337" s="15">
         <v>436.8</v>
       </c>
-      <c r="D337" s="18"/>
+      <c r="D337" s="16"/>
       <c r="E337" s="10"/>
       <c r="F337" s="10"/>
       <c r="G337" s="10"/>
@@ -15442,13 +15442,13 @@
       <c r="A338" s="3" t="s">
         <v>682</v>
       </c>
-      <c r="B338" s="16" t="s">
+      <c r="B338" s="14" t="s">
         <v>683</v>
       </c>
-      <c r="C338" s="17">
+      <c r="C338" s="15">
         <v>409.5</v>
       </c>
-      <c r="D338" s="18"/>
+      <c r="D338" s="16"/>
       <c r="E338" s="10"/>
       <c r="F338" s="10"/>
       <c r="G338" s="10"/>
@@ -15457,13 +15457,13 @@
       <c r="A339" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="B339" s="16" t="s">
+      <c r="B339" s="14" t="s">
         <v>685</v>
       </c>
-      <c r="C339" s="17">
+      <c r="C339" s="15">
         <v>273</v>
       </c>
-      <c r="D339" s="18"/>
+      <c r="D339" s="16"/>
       <c r="E339" s="10"/>
       <c r="F339" s="10"/>
       <c r="G339" s="10"/>
@@ -15472,13 +15472,13 @@
       <c r="A340" s="3" t="s">
         <v>686</v>
       </c>
-      <c r="B340" s="16" t="s">
+      <c r="B340" s="14" t="s">
         <v>687</v>
       </c>
-      <c r="C340" s="17">
+      <c r="C340" s="15">
         <v>716.63</v>
       </c>
-      <c r="D340" s="18"/>
+      <c r="D340" s="16"/>
       <c r="E340" s="10"/>
       <c r="F340" s="10"/>
       <c r="G340" s="10"/>
@@ -15487,13 +15487,13 @@
       <c r="A341" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="B341" s="16" t="s">
+      <c r="B341" s="14" t="s">
         <v>689</v>
       </c>
-      <c r="C341" s="17">
+      <c r="C341" s="15">
         <v>749.39</v>
       </c>
-      <c r="D341" s="18"/>
+      <c r="D341" s="16"/>
       <c r="E341" s="10"/>
       <c r="F341" s="10"/>
       <c r="G341" s="10"/>
@@ -15502,30 +15502,30 @@
       <c r="A342" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="B342" s="16" t="s">
+      <c r="B342" s="14" t="s">
         <v>691</v>
       </c>
-      <c r="C342" s="17">
+      <c r="C342" s="15">
         <v>1500.14</v>
       </c>
-      <c r="D342" s="31" t="s">
+      <c r="D342" s="29" t="s">
         <v>692</v>
       </c>
-      <c r="E342" s="29"/>
-      <c r="F342" s="30"/>
+      <c r="E342" s="27"/>
+      <c r="F342" s="28"/>
       <c r="G342" s="10"/>
     </row>
     <row r="343" spans="1:7" ht="27" customHeight="1">
       <c r="A343" s="3" t="s">
         <v>693</v>
       </c>
-      <c r="B343" s="16" t="s">
+      <c r="B343" s="14" t="s">
         <v>694</v>
       </c>
-      <c r="C343" s="17">
+      <c r="C343" s="15">
         <v>412.53</v>
       </c>
-      <c r="D343" s="18"/>
+      <c r="D343" s="16"/>
       <c r="E343" s="10"/>
       <c r="F343" s="10"/>
       <c r="G343" s="10"/>
@@ -15534,13 +15534,13 @@
       <c r="A344" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="B344" s="16" t="s">
+      <c r="B344" s="14" t="s">
         <v>696</v>
       </c>
-      <c r="C344" s="17">
+      <c r="C344" s="15">
         <v>1500.14</v>
       </c>
-      <c r="D344" s="18"/>
+      <c r="D344" s="16"/>
       <c r="E344" s="10"/>
       <c r="F344" s="10"/>
       <c r="G344" s="10"/>
@@ -15549,13 +15549,13 @@
       <c r="A345" s="3" t="s">
         <v>697</v>
       </c>
-      <c r="B345" s="16" t="s">
+      <c r="B345" s="14" t="s">
         <v>698</v>
       </c>
-      <c r="C345" s="17">
+      <c r="C345" s="15">
         <v>1500.14</v>
       </c>
-      <c r="D345" s="18"/>
+      <c r="D345" s="16"/>
       <c r="E345" s="10"/>
       <c r="F345" s="10"/>
       <c r="G345" s="10"/>
@@ -15564,13 +15564,13 @@
       <c r="A346" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="B346" s="16" t="s">
+      <c r="B346" s="14" t="s">
         <v>700</v>
       </c>
-      <c r="C346" s="17">
+      <c r="C346" s="15">
         <v>1500.14</v>
       </c>
-      <c r="D346" s="18"/>
+      <c r="D346" s="16"/>
       <c r="E346" s="10"/>
       <c r="F346" s="10"/>
       <c r="G346" s="10"/>
@@ -15579,13 +15579,13 @@
       <c r="A347" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="B347" s="16" t="s">
+      <c r="B347" s="14" t="s">
         <v>702</v>
       </c>
-      <c r="C347" s="17">
+      <c r="C347" s="15">
         <v>412.53</v>
       </c>
-      <c r="D347" s="18"/>
+      <c r="D347" s="16"/>
       <c r="E347" s="10"/>
       <c r="F347" s="10"/>
       <c r="G347" s="10"/>
@@ -15594,13 +15594,13 @@
       <c r="A348" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="B348" s="16" t="s">
+      <c r="B348" s="14" t="s">
         <v>704</v>
       </c>
-      <c r="C348" s="17">
+      <c r="C348" s="15">
         <v>412.53</v>
       </c>
-      <c r="D348" s="18"/>
+      <c r="D348" s="16"/>
       <c r="E348" s="10"/>
       <c r="F348" s="10"/>
       <c r="G348" s="10"/>
@@ -15609,13 +15609,13 @@
       <c r="A349" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="B349" s="16" t="s">
+      <c r="B349" s="14" t="s">
         <v>706</v>
       </c>
-      <c r="C349" s="17">
+      <c r="C349" s="15">
         <v>412.53</v>
       </c>
-      <c r="D349" s="18"/>
+      <c r="D349" s="16"/>
       <c r="E349" s="10"/>
       <c r="F349" s="10"/>
       <c r="G349" s="10"/>
@@ -15624,13 +15624,13 @@
       <c r="A350" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="B350" s="16" t="s">
+      <c r="B350" s="14" t="s">
         <v>708</v>
       </c>
-      <c r="C350" s="17">
+      <c r="C350" s="15">
         <v>163.80000000000001</v>
       </c>
-      <c r="D350" s="18"/>
+      <c r="D350" s="16"/>
       <c r="E350" s="10"/>
       <c r="F350" s="10"/>
       <c r="G350" s="10"/>
@@ -15639,13 +15639,13 @@
       <c r="A351" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="B351" s="16" t="s">
+      <c r="B351" s="14" t="s">
         <v>710</v>
       </c>
-      <c r="C351" s="17">
+      <c r="C351" s="15">
         <v>163.80000000000001</v>
       </c>
-      <c r="D351" s="18"/>
+      <c r="D351" s="16"/>
       <c r="E351" s="10"/>
       <c r="F351" s="10"/>
       <c r="G351" s="10"/>
@@ -15654,13 +15654,13 @@
       <c r="A352" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="B352" s="16" t="s">
+      <c r="B352" s="14" t="s">
         <v>712</v>
       </c>
-      <c r="C352" s="17">
+      <c r="C352" s="15">
         <v>163.80000000000001</v>
       </c>
-      <c r="D352" s="18"/>
+      <c r="D352" s="16"/>
       <c r="E352" s="10"/>
       <c r="F352" s="10"/>
       <c r="G352" s="10"/>
@@ -15669,13 +15669,13 @@
       <c r="A353" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="B353" s="16" t="s">
+      <c r="B353" s="14" t="s">
         <v>714</v>
       </c>
-      <c r="C353" s="17">
+      <c r="C353" s="15">
         <v>163.80000000000001</v>
       </c>
-      <c r="D353" s="18"/>
+      <c r="D353" s="16"/>
       <c r="E353" s="10"/>
       <c r="F353" s="10"/>
       <c r="G353" s="10"/>
@@ -15684,13 +15684,13 @@
       <c r="A354" s="3" t="s">
         <v>715</v>
       </c>
-      <c r="B354" s="16" t="s">
+      <c r="B354" s="14" t="s">
         <v>716</v>
       </c>
-      <c r="C354" s="17">
+      <c r="C354" s="15">
         <v>5.46</v>
       </c>
-      <c r="D354" s="18"/>
+      <c r="D354" s="16"/>
       <c r="E354" s="10"/>
       <c r="F354" s="10"/>
       <c r="G354" s="10"/>
@@ -15699,13 +15699,13 @@
       <c r="A355" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="B355" s="16" t="s">
+      <c r="B355" s="14" t="s">
         <v>718</v>
       </c>
-      <c r="C355" s="17">
+      <c r="C355" s="15">
         <v>5.46</v>
       </c>
-      <c r="D355" s="18"/>
+      <c r="D355" s="16"/>
       <c r="E355" s="10"/>
       <c r="F355" s="10"/>
       <c r="G355" s="10"/>
@@ -15714,13 +15714,13 @@
       <c r="A356" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="B356" s="16" t="s">
+      <c r="B356" s="14" t="s">
         <v>720</v>
       </c>
-      <c r="C356" s="17">
+      <c r="C356" s="15">
         <v>2.73</v>
       </c>
-      <c r="D356" s="18"/>
+      <c r="D356" s="16"/>
       <c r="E356" s="10"/>
       <c r="F356" s="10"/>
       <c r="G356" s="10"/>
@@ -15729,13 +15729,13 @@
       <c r="A357" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="B357" s="16" t="s">
+      <c r="B357" s="14" t="s">
         <v>722</v>
       </c>
-      <c r="C357" s="17">
+      <c r="C357" s="15">
         <v>2.73</v>
       </c>
-      <c r="D357" s="18"/>
+      <c r="D357" s="16"/>
       <c r="E357" s="10"/>
       <c r="F357" s="10"/>
       <c r="G357" s="10"/>
@@ -15744,13 +15744,13 @@
       <c r="A358" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="B358" s="16" t="s">
+      <c r="B358" s="14" t="s">
         <v>724</v>
       </c>
-      <c r="C358" s="17">
+      <c r="C358" s="15">
         <v>22.5</v>
       </c>
-      <c r="D358" s="18"/>
+      <c r="D358" s="16"/>
       <c r="E358" s="10"/>
       <c r="F358" s="10"/>
       <c r="G358" s="10"/>
@@ -15759,13 +15759,13 @@
       <c r="A359" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="B359" s="16" t="s">
+      <c r="B359" s="14" t="s">
         <v>726</v>
       </c>
-      <c r="C359" s="17">
+      <c r="C359" s="15">
         <v>2.5</v>
       </c>
-      <c r="D359" s="18"/>
+      <c r="D359" s="16"/>
       <c r="E359" s="10"/>
       <c r="F359" s="10"/>
       <c r="G359" s="10"/>
@@ -15774,13 +15774,13 @@
       <c r="A360" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="B360" s="16" t="s">
+      <c r="B360" s="14" t="s">
         <v>728</v>
       </c>
-      <c r="C360" s="17">
+      <c r="C360" s="15">
         <v>2.5</v>
       </c>
-      <c r="D360" s="18"/>
+      <c r="D360" s="16"/>
       <c r="E360" s="10"/>
       <c r="F360" s="10"/>
       <c r="G360" s="10"/>
@@ -15789,13 +15789,13 @@
       <c r="A361" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="B361" s="16" t="s">
+      <c r="B361" s="14" t="s">
         <v>730</v>
       </c>
-      <c r="C361" s="17">
+      <c r="C361" s="15">
         <v>2.5</v>
       </c>
-      <c r="D361" s="18"/>
+      <c r="D361" s="16"/>
       <c r="E361" s="10"/>
       <c r="F361" s="10"/>
       <c r="G361" s="10"/>
@@ -15804,13 +15804,13 @@
       <c r="A362" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="B362" s="16" t="s">
+      <c r="B362" s="14" t="s">
         <v>732</v>
       </c>
-      <c r="C362" s="17">
+      <c r="C362" s="15">
         <v>2.5</v>
       </c>
-      <c r="D362" s="18"/>
+      <c r="D362" s="16"/>
       <c r="E362" s="10"/>
       <c r="F362" s="10"/>
       <c r="G362" s="10"/>
@@ -15819,13 +15819,13 @@
       <c r="A363" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="B363" s="16" t="s">
+      <c r="B363" s="14" t="s">
         <v>734</v>
       </c>
-      <c r="C363" s="17">
+      <c r="C363" s="15">
         <v>2.5</v>
       </c>
-      <c r="D363" s="18"/>
+      <c r="D363" s="16"/>
       <c r="E363" s="10"/>
       <c r="F363" s="10"/>
       <c r="G363" s="10"/>
@@ -15834,13 +15834,13 @@
       <c r="A364" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="B364" s="16" t="s">
+      <c r="B364" s="14" t="s">
         <v>736</v>
       </c>
-      <c r="C364" s="17">
+      <c r="C364" s="15">
         <v>2.5</v>
       </c>
-      <c r="D364" s="18"/>
+      <c r="D364" s="16"/>
       <c r="E364" s="10"/>
       <c r="F364" s="10"/>
       <c r="G364" s="10"/>
@@ -15849,13 +15849,13 @@
       <c r="A365" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="B365" s="16" t="s">
+      <c r="B365" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="C365" s="17">
+      <c r="C365" s="15">
         <v>2.5</v>
       </c>
-      <c r="D365" s="18"/>
+      <c r="D365" s="16"/>
       <c r="E365" s="10"/>
       <c r="F365" s="10"/>
       <c r="G365" s="10"/>
@@ -15864,13 +15864,13 @@
       <c r="A366" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="B366" s="16" t="s">
+      <c r="B366" s="14" t="s">
         <v>740</v>
       </c>
-      <c r="C366" s="17">
+      <c r="C366" s="15">
         <v>2.5</v>
       </c>
-      <c r="D366" s="18"/>
+      <c r="D366" s="16"/>
       <c r="E366" s="10"/>
       <c r="F366" s="10"/>
       <c r="G366" s="10"/>
@@ -15879,13 +15879,13 @@
       <c r="A367" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="B367" s="16" t="s">
+      <c r="B367" s="14" t="s">
         <v>742</v>
       </c>
-      <c r="C367" s="17">
+      <c r="C367" s="15">
         <v>87.49</v>
       </c>
-      <c r="D367" s="18"/>
+      <c r="D367" s="16"/>
       <c r="E367" s="10"/>
       <c r="F367" s="10"/>
       <c r="G367" s="10"/>
@@ -15894,13 +15894,13 @@
       <c r="A368" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="B368" s="16" t="s">
+      <c r="B368" s="14" t="s">
         <v>744</v>
       </c>
-      <c r="C368" s="17">
+      <c r="C368" s="15">
         <v>93.74</v>
       </c>
-      <c r="D368" s="18"/>
+      <c r="D368" s="16"/>
       <c r="E368" s="10"/>
       <c r="F368" s="10"/>
       <c r="G368" s="10"/>
@@ -15909,13 +15909,13 @@
       <c r="A369" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="B369" s="16" t="s">
+      <c r="B369" s="14" t="s">
         <v>746</v>
       </c>
-      <c r="C369" s="17">
+      <c r="C369" s="15">
         <v>99.99</v>
       </c>
-      <c r="D369" s="18"/>
+      <c r="D369" s="16"/>
       <c r="E369" s="10"/>
       <c r="F369" s="10"/>
       <c r="G369" s="10"/>
@@ -15924,13 +15924,13 @@
       <c r="A370" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="B370" s="16" t="s">
+      <c r="B370" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="C370" s="17">
+      <c r="C370" s="15">
         <v>106.24</v>
       </c>
-      <c r="D370" s="18"/>
+      <c r="D370" s="16"/>
       <c r="E370" s="10"/>
       <c r="F370" s="10"/>
       <c r="G370" s="10"/>
@@ -15939,13 +15939,13 @@
       <c r="A371" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="B371" s="16" t="s">
+      <c r="B371" s="14" t="s">
         <v>750</v>
       </c>
-      <c r="C371" s="17">
+      <c r="C371" s="15">
         <v>87.49</v>
       </c>
-      <c r="D371" s="18"/>
+      <c r="D371" s="16"/>
       <c r="E371" s="10"/>
       <c r="F371" s="10"/>
       <c r="G371" s="10"/>
@@ -15954,13 +15954,13 @@
       <c r="A372" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="B372" s="16" t="s">
+      <c r="B372" s="14" t="s">
         <v>752</v>
       </c>
-      <c r="C372" s="17">
+      <c r="C372" s="15">
         <v>93.74</v>
       </c>
-      <c r="D372" s="18"/>
+      <c r="D372" s="16"/>
       <c r="E372" s="10"/>
       <c r="F372" s="10"/>
       <c r="G372" s="10"/>
@@ -15969,13 +15969,13 @@
       <c r="A373" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="B373" s="16" t="s">
+      <c r="B373" s="14" t="s">
         <v>754</v>
       </c>
-      <c r="C373" s="17">
+      <c r="C373" s="15">
         <v>99.99</v>
       </c>
-      <c r="D373" s="18"/>
+      <c r="D373" s="16"/>
       <c r="E373" s="10"/>
       <c r="F373" s="10"/>
       <c r="G373" s="10"/>
@@ -15984,13 +15984,13 @@
       <c r="A374" s="3" t="s">
         <v>755</v>
       </c>
-      <c r="B374" s="16" t="s">
+      <c r="B374" s="14" t="s">
         <v>756</v>
       </c>
-      <c r="C374" s="17">
+      <c r="C374" s="15">
         <v>106.24</v>
       </c>
-      <c r="D374" s="18"/>
+      <c r="D374" s="16"/>
       <c r="E374" s="10"/>
       <c r="F374" s="10"/>
       <c r="G374" s="10"/>
@@ -15999,13 +15999,13 @@
       <c r="A375" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="B375" s="16" t="s">
+      <c r="B375" s="14" t="s">
         <v>758</v>
       </c>
-      <c r="C375" s="17">
+      <c r="C375" s="15">
         <v>13.65</v>
       </c>
-      <c r="D375" s="18"/>
+      <c r="D375" s="16"/>
       <c r="E375" s="10"/>
       <c r="F375" s="10"/>
       <c r="G375" s="10"/>
@@ -16014,16 +16014,16 @@
       <c r="A376" s="3" t="s">
         <v>759</v>
       </c>
-      <c r="B376" s="16" t="s">
+      <c r="B376" s="14" t="s">
         <v>760</v>
       </c>
-      <c r="C376" s="17">
+      <c r="C376" s="15">
         <v>1125</v>
       </c>
-      <c r="D376" s="31" t="s">
+      <c r="D376" s="29" t="s">
         <v>761</v>
       </c>
-      <c r="E376" s="30"/>
+      <c r="E376" s="28"/>
       <c r="F376" s="10"/>
       <c r="G376" s="10"/>
     </row>
@@ -16031,13 +16031,13 @@
       <c r="A377" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="B377" s="20" t="s">
+      <c r="B377" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="C377" s="21">
+      <c r="C377" s="19">
         <v>778.7</v>
       </c>
-      <c r="D377" s="18"/>
+      <c r="D377" s="16"/>
       <c r="E377" s="10"/>
       <c r="F377" s="10"/>
       <c r="G377" s="10"/>
@@ -16052,7 +16052,7 @@
       <c r="C378" s="13">
         <v>778.7</v>
       </c>
-      <c r="D378" s="18"/>
+      <c r="D378" s="16"/>
       <c r="E378" s="10"/>
       <c r="F378" s="10"/>
       <c r="G378" s="10"/>
@@ -16061,13 +16061,13 @@
       <c r="A379" s="6" t="s">
         <v>766</v>
       </c>
-      <c r="B379" s="23" t="s">
+      <c r="B379" s="21" t="s">
         <v>767</v>
       </c>
-      <c r="C379" s="17">
+      <c r="C379" s="15">
         <v>778.7</v>
       </c>
-      <c r="D379" s="18"/>
+      <c r="D379" s="16"/>
       <c r="E379" s="10"/>
       <c r="F379" s="10"/>
       <c r="G379" s="10"/>
@@ -16076,13 +16076,13 @@
       <c r="A380" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="B380" s="23" t="s">
+      <c r="B380" s="21" t="s">
         <v>769</v>
       </c>
-      <c r="C380" s="17">
+      <c r="C380" s="15">
         <v>778.7</v>
       </c>
-      <c r="D380" s="18"/>
+      <c r="D380" s="16"/>
       <c r="E380" s="10"/>
       <c r="F380" s="10"/>
       <c r="G380" s="10"/>
@@ -16091,13 +16091,13 @@
       <c r="A381" s="3" t="s">
         <v>770</v>
       </c>
-      <c r="B381" s="16" t="s">
+      <c r="B381" s="14" t="s">
         <v>771</v>
       </c>
-      <c r="C381" s="17">
+      <c r="C381" s="15">
         <v>778.7</v>
       </c>
-      <c r="D381" s="18"/>
+      <c r="D381" s="16"/>
       <c r="E381" s="10"/>
       <c r="F381" s="10"/>
       <c r="G381" s="10"/>
@@ -16106,13 +16106,13 @@
       <c r="A382" s="3" t="s">
         <v>772</v>
       </c>
-      <c r="B382" s="24" t="s">
+      <c r="B382" s="22" t="s">
         <v>773</v>
       </c>
-      <c r="C382" s="17">
+      <c r="C382" s="15">
         <v>778.7</v>
       </c>
-      <c r="D382" s="18"/>
+      <c r="D382" s="16"/>
       <c r="E382" s="10"/>
       <c r="F382" s="10"/>
       <c r="G382" s="10"/>
@@ -16121,13 +16121,13 @@
       <c r="A383" s="3" t="s">
         <v>774</v>
       </c>
-      <c r="B383" s="16" t="s">
+      <c r="B383" s="14" t="s">
         <v>775</v>
       </c>
-      <c r="C383" s="17">
+      <c r="C383" s="15">
         <v>778.7</v>
       </c>
-      <c r="D383" s="18"/>
+      <c r="D383" s="16"/>
       <c r="E383" s="10"/>
       <c r="F383" s="10"/>
       <c r="G383" s="10"/>
@@ -16136,13 +16136,13 @@
       <c r="A384" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="B384" s="16" t="s">
+      <c r="B384" s="14" t="s">
         <v>777</v>
       </c>
-      <c r="C384" s="17">
+      <c r="C384" s="15">
         <v>778.7</v>
       </c>
-      <c r="D384" s="18"/>
+      <c r="D384" s="16"/>
       <c r="E384" s="10"/>
       <c r="F384" s="10"/>
       <c r="G384" s="10"/>
@@ -16151,13 +16151,13 @@
       <c r="A385" s="3" t="s">
         <v>778</v>
       </c>
-      <c r="B385" s="25" t="s">
+      <c r="B385" s="23" t="s">
         <v>779</v>
       </c>
-      <c r="C385" s="17">
+      <c r="C385" s="15">
         <v>778.7</v>
       </c>
-      <c r="D385" s="18"/>
+      <c r="D385" s="16"/>
       <c r="E385" s="10"/>
       <c r="F385" s="10"/>
       <c r="G385" s="10"/>
@@ -16166,13 +16166,13 @@
       <c r="A386" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="B386" s="16" t="s">
+      <c r="B386" s="14" t="s">
         <v>781</v>
       </c>
-      <c r="C386" s="17">
+      <c r="C386" s="15">
         <v>778.7</v>
       </c>
-      <c r="D386" s="18"/>
+      <c r="D386" s="16"/>
       <c r="E386" s="10"/>
       <c r="F386" s="10"/>
       <c r="G386" s="10"/>
@@ -16181,13 +16181,13 @@
       <c r="A387" s="3" t="s">
         <v>782</v>
       </c>
-      <c r="B387" s="24" t="s">
+      <c r="B387" s="22" t="s">
         <v>783</v>
       </c>
-      <c r="C387" s="17">
+      <c r="C387" s="15">
         <v>778.7</v>
       </c>
-      <c r="D387" s="18"/>
+      <c r="D387" s="16"/>
       <c r="E387" s="10"/>
       <c r="F387" s="10"/>
       <c r="G387" s="10"/>
@@ -16196,13 +16196,13 @@
       <c r="A388" s="3" t="s">
         <v>784</v>
       </c>
-      <c r="B388" s="24" t="s">
+      <c r="B388" s="22" t="s">
         <v>785</v>
       </c>
-      <c r="C388" s="17">
+      <c r="C388" s="15">
         <v>778.7</v>
       </c>
-      <c r="D388" s="18"/>
+      <c r="D388" s="16"/>
       <c r="E388" s="10"/>
       <c r="F388" s="10"/>
       <c r="G388" s="10"/>
@@ -16211,13 +16211,13 @@
       <c r="A389" s="3" t="s">
         <v>786</v>
       </c>
-      <c r="B389" s="16" t="s">
+      <c r="B389" s="14" t="s">
         <v>787</v>
       </c>
-      <c r="C389" s="17">
+      <c r="C389" s="15">
         <v>778.7</v>
       </c>
-      <c r="D389" s="18"/>
+      <c r="D389" s="16"/>
       <c r="E389" s="10"/>
       <c r="F389" s="10"/>
       <c r="G389" s="10"/>
@@ -16226,13 +16226,13 @@
       <c r="A390" s="3" t="s">
         <v>788</v>
       </c>
-      <c r="B390" s="16" t="s">
+      <c r="B390" s="14" t="s">
         <v>789</v>
       </c>
-      <c r="C390" s="17">
+      <c r="C390" s="15">
         <v>778.7</v>
       </c>
-      <c r="D390" s="18"/>
+      <c r="D390" s="16"/>
       <c r="E390" s="10"/>
       <c r="F390" s="10"/>
       <c r="G390" s="10"/>
@@ -16241,13 +16241,13 @@
       <c r="A391" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="B391" s="16" t="s">
+      <c r="B391" s="14" t="s">
         <v>791</v>
       </c>
-      <c r="C391" s="17">
+      <c r="C391" s="15">
         <v>778.7</v>
       </c>
-      <c r="D391" s="18"/>
+      <c r="D391" s="16"/>
       <c r="E391" s="10"/>
       <c r="F391" s="10"/>
       <c r="G391" s="10"/>
@@ -16256,13 +16256,13 @@
       <c r="A392" s="3" t="s">
         <v>792</v>
       </c>
-      <c r="B392" s="16" t="s">
+      <c r="B392" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="C392" s="17">
+      <c r="C392" s="15">
         <v>27.3</v>
       </c>
-      <c r="D392" s="19" t="s">
+      <c r="D392" s="17" t="s">
         <v>794</v>
       </c>
       <c r="E392" s="10"/>
@@ -16273,13 +16273,13 @@
       <c r="A393" s="3" t="s">
         <v>795</v>
       </c>
-      <c r="B393" s="16" t="s">
+      <c r="B393" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="C393" s="17">
+      <c r="C393" s="15">
         <v>27.3</v>
       </c>
-      <c r="D393" s="18"/>
+      <c r="D393" s="16"/>
       <c r="E393" s="10"/>
       <c r="F393" s="10"/>
       <c r="G393" s="10"/>
@@ -16288,13 +16288,13 @@
       <c r="A394" s="3" t="s">
         <v>797</v>
       </c>
-      <c r="B394" s="16" t="s">
+      <c r="B394" s="14" t="s">
         <v>798</v>
       </c>
-      <c r="C394" s="17">
+      <c r="C394" s="15">
         <v>27.3</v>
       </c>
-      <c r="D394" s="18"/>
+      <c r="D394" s="16"/>
       <c r="E394" s="10"/>
       <c r="F394" s="10"/>
       <c r="G394" s="10"/>
@@ -16303,13 +16303,13 @@
       <c r="A395" s="3" t="s">
         <v>799</v>
       </c>
-      <c r="B395" s="16" t="s">
+      <c r="B395" s="14" t="s">
         <v>800</v>
       </c>
-      <c r="C395" s="17">
+      <c r="C395" s="15">
         <v>27.3</v>
       </c>
-      <c r="D395" s="18"/>
+      <c r="D395" s="16"/>
       <c r="E395" s="10"/>
       <c r="F395" s="10"/>
       <c r="G395" s="10"/>
@@ -16318,13 +16318,13 @@
       <c r="A396" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="B396" s="16" t="s">
+      <c r="B396" s="14" t="s">
         <v>802</v>
       </c>
-      <c r="C396" s="17">
+      <c r="C396" s="15">
         <v>27.3</v>
       </c>
-      <c r="D396" s="18"/>
+      <c r="D396" s="16"/>
       <c r="E396" s="10"/>
       <c r="F396" s="10"/>
       <c r="G396" s="10"/>
@@ -16333,13 +16333,13 @@
       <c r="A397" s="3" t="s">
         <v>803</v>
       </c>
-      <c r="B397" s="16" t="s">
+      <c r="B397" s="14" t="s">
         <v>804</v>
       </c>
-      <c r="C397" s="17">
+      <c r="C397" s="15">
         <v>51.19</v>
       </c>
-      <c r="D397" s="18"/>
+      <c r="D397" s="16"/>
       <c r="E397" s="10"/>
       <c r="F397" s="10"/>
       <c r="G397" s="10"/>
@@ -16348,13 +16348,13 @@
       <c r="A398" s="3" t="s">
         <v>805</v>
       </c>
-      <c r="B398" s="16" t="s">
+      <c r="B398" s="14" t="s">
         <v>806</v>
       </c>
-      <c r="C398" s="17">
+      <c r="C398" s="15">
         <v>51.19</v>
       </c>
-      <c r="D398" s="18"/>
+      <c r="D398" s="16"/>
       <c r="E398" s="10"/>
       <c r="F398" s="10"/>
       <c r="G398" s="10"/>
@@ -16363,13 +16363,13 @@
       <c r="A399" s="3" t="s">
         <v>807</v>
       </c>
-      <c r="B399" s="16" t="s">
+      <c r="B399" s="14" t="s">
         <v>808</v>
       </c>
-      <c r="C399" s="17">
+      <c r="C399" s="15">
         <v>51.19</v>
       </c>
-      <c r="D399" s="18"/>
+      <c r="D399" s="16"/>
       <c r="E399" s="10"/>
       <c r="F399" s="10"/>
       <c r="G399" s="10"/>
@@ -16378,13 +16378,13 @@
       <c r="A400" s="3" t="s">
         <v>809</v>
       </c>
-      <c r="B400" s="16" t="s">
+      <c r="B400" s="14" t="s">
         <v>810</v>
       </c>
-      <c r="C400" s="17">
+      <c r="C400" s="15">
         <v>51.19</v>
       </c>
-      <c r="D400" s="18"/>
+      <c r="D400" s="16"/>
       <c r="E400" s="10"/>
       <c r="F400" s="10"/>
       <c r="G400" s="10"/>
@@ -16393,13 +16393,13 @@
       <c r="A401" s="3" t="s">
         <v>811</v>
       </c>
-      <c r="B401" s="16" t="s">
+      <c r="B401" s="14" t="s">
         <v>812</v>
       </c>
-      <c r="C401" s="17">
+      <c r="C401" s="15">
         <v>51.19</v>
       </c>
-      <c r="D401" s="18"/>
+      <c r="D401" s="16"/>
       <c r="E401" s="10"/>
       <c r="F401" s="10"/>
       <c r="G401" s="10"/>
@@ -16408,13 +16408,13 @@
       <c r="A402" s="3" t="s">
         <v>813</v>
       </c>
-      <c r="B402" s="16" t="s">
+      <c r="B402" s="14" t="s">
         <v>814</v>
       </c>
-      <c r="C402" s="17">
+      <c r="C402" s="15">
         <v>51.19</v>
       </c>
-      <c r="D402" s="18"/>
+      <c r="D402" s="16"/>
       <c r="E402" s="10"/>
       <c r="F402" s="10"/>
       <c r="G402" s="10"/>
@@ -16423,13 +16423,13 @@
       <c r="A403" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="B403" s="16" t="s">
+      <c r="B403" s="14" t="s">
         <v>816</v>
       </c>
-      <c r="C403" s="17">
+      <c r="C403" s="15">
         <v>51.19</v>
       </c>
-      <c r="D403" s="18"/>
+      <c r="D403" s="16"/>
       <c r="E403" s="10"/>
       <c r="F403" s="10"/>
       <c r="G403" s="10"/>
@@ -16438,13 +16438,13 @@
       <c r="A404" s="3" t="s">
         <v>817</v>
       </c>
-      <c r="B404" s="16" t="s">
+      <c r="B404" s="14" t="s">
         <v>818</v>
       </c>
-      <c r="C404" s="17">
+      <c r="C404" s="15">
         <v>51.19</v>
       </c>
-      <c r="D404" s="18"/>
+      <c r="D404" s="16"/>
       <c r="E404" s="10"/>
       <c r="F404" s="10"/>
       <c r="G404" s="10"/>
@@ -16453,13 +16453,13 @@
       <c r="A405" s="3" t="s">
         <v>819</v>
       </c>
-      <c r="B405" s="16" t="s">
+      <c r="B405" s="14" t="s">
         <v>820</v>
       </c>
-      <c r="C405" s="17">
+      <c r="C405" s="15">
         <v>51.19</v>
       </c>
-      <c r="D405" s="18"/>
+      <c r="D405" s="16"/>
       <c r="E405" s="10"/>
       <c r="F405" s="10"/>
       <c r="G405" s="10"/>
@@ -16468,13 +16468,13 @@
       <c r="A406" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="B406" s="16" t="s">
+      <c r="B406" s="14" t="s">
         <v>822</v>
       </c>
-      <c r="C406" s="17">
+      <c r="C406" s="15">
         <v>51.19</v>
       </c>
-      <c r="D406" s="18"/>
+      <c r="D406" s="16"/>
       <c r="E406" s="10"/>
       <c r="F406" s="10"/>
       <c r="G406" s="10"/>
@@ -16483,13 +16483,13 @@
       <c r="A407" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="B407" s="16" t="s">
+      <c r="B407" s="14" t="s">
         <v>824</v>
       </c>
-      <c r="C407" s="17">
+      <c r="C407" s="15">
         <v>51.19</v>
       </c>
-      <c r="D407" s="18"/>
+      <c r="D407" s="16"/>
       <c r="E407" s="10"/>
       <c r="F407" s="10"/>
       <c r="G407" s="10"/>
@@ -16498,13 +16498,13 @@
       <c r="A408" s="3" t="s">
         <v>825</v>
       </c>
-      <c r="B408" s="16" t="s">
+      <c r="B408" s="14" t="s">
         <v>826</v>
       </c>
-      <c r="C408" s="17">
+      <c r="C408" s="15">
         <v>51.19</v>
       </c>
-      <c r="D408" s="18"/>
+      <c r="D408" s="16"/>
       <c r="E408" s="10"/>
       <c r="F408" s="10"/>
       <c r="G408" s="10"/>
@@ -16513,13 +16513,13 @@
       <c r="A409" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="B409" s="16" t="s">
+      <c r="B409" s="14" t="s">
         <v>828</v>
       </c>
-      <c r="C409" s="17">
+      <c r="C409" s="15">
         <v>51.19</v>
       </c>
-      <c r="D409" s="18"/>
+      <c r="D409" s="16"/>
       <c r="E409" s="10"/>
       <c r="F409" s="10"/>
       <c r="G409" s="10"/>
@@ -16528,13 +16528,13 @@
       <c r="A410" s="3" t="s">
         <v>829</v>
       </c>
-      <c r="B410" s="16" t="s">
+      <c r="B410" s="14" t="s">
         <v>830</v>
       </c>
-      <c r="C410" s="17">
+      <c r="C410" s="15">
         <v>51.19</v>
       </c>
-      <c r="D410" s="18"/>
+      <c r="D410" s="16"/>
       <c r="E410" s="10"/>
       <c r="F410" s="10"/>
       <c r="G410" s="10"/>
@@ -16543,13 +16543,13 @@
       <c r="A411" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="B411" s="16" t="s">
+      <c r="B411" s="14" t="s">
         <v>832</v>
       </c>
-      <c r="C411" s="17">
+      <c r="C411" s="15">
         <v>51.19</v>
       </c>
-      <c r="D411" s="18"/>
+      <c r="D411" s="16"/>
       <c r="E411" s="10"/>
       <c r="F411" s="10"/>
       <c r="G411" s="10"/>
@@ -16558,13 +16558,13 @@
       <c r="A412" s="4" t="s">
         <v>833</v>
       </c>
-      <c r="B412" s="20" t="s">
+      <c r="B412" s="18" t="s">
         <v>834</v>
       </c>
-      <c r="C412" s="21">
+      <c r="C412" s="19">
         <v>8.19</v>
       </c>
-      <c r="D412" s="18"/>
+      <c r="D412" s="16"/>
       <c r="E412" s="10"/>
       <c r="F412" s="10"/>
       <c r="G412" s="10"/>
